--- a/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
+++ b/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repozytoria\Projekt Zespołowy\ITM_ProjektZespo-owy\backend\Initializers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15331DC-9C3C-46CB-A278-304D4CB378C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E934A506-29BC-4864-A7F3-4994275C76F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="264">
   <si>
     <t>Stworzenie profilu organizacji</t>
   </si>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1308,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E329EE17-4EF8-4E0B-A376-13463FD45274}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1319,20 +1319,45 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
       <c r="B1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185C019C-5082-4509-8B3F-A49CA6E5A33C}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -2399,7 +2424,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E39" sqref="E3:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3076,270 +3101,1334 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D40" s="8"/>
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>23</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D41" s="8"/>
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>21</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D42" s="8"/>
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D43" s="8"/>
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D44" s="8"/>
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>22</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D45" s="8"/>
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D46" s="8"/>
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D47" s="8"/>
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D97" s="8"/>
-    </row>
-    <row r="98" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D105" s="8"/>
-    </row>
-    <row r="106" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D106" s="8"/>
-    </row>
-    <row r="107" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D107" s="8"/>
-    </row>
-    <row r="108" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D112" s="8"/>
-    </row>
-    <row r="113" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D113" s="8"/>
-    </row>
-    <row r="114" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D114" s="8"/>
-    </row>
-    <row r="115" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D115" s="8"/>
-    </row>
-    <row r="116" spans="4:4" ht="12.75" customHeight="1">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>30</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>25</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7">
+        <v>13</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>20</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>11</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>31</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>18</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>26</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>15</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>16</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>32</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>19</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>27</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>36</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>35</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>34</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>24</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>38</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>37</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>23</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>21</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>6</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>22</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>29</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>33</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>8</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>30</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>7</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>25</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>28</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7">
+        <v>13</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>20</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>11</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>31</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>18</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>26</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>15</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>10</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>16</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>32</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>19</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>27</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>12</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>14</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>36</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>35</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>34</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>24</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>38</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>37</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12.75" customHeight="1">
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="4:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:5" ht="12.75" customHeight="1">
       <c r="D117" s="8"/>
     </row>
-    <row r="118" spans="4:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:5" ht="12.75" customHeight="1">
       <c r="D118" s="8"/>
     </row>
-    <row r="119" spans="4:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:5" ht="12.75" customHeight="1">
       <c r="D119" s="8"/>
     </row>
-    <row r="120" spans="4:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:5" ht="12.75" customHeight="1">
       <c r="D120" s="8"/>
     </row>
-    <row r="121" spans="4:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:5" ht="12.75" customHeight="1">
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="4:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:5" ht="12.75" customHeight="1">
       <c r="D122" s="8"/>
     </row>
-    <row r="123" spans="4:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:5" ht="12.75" customHeight="1">
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="4:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:5" ht="12.75" customHeight="1">
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="4:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:5" ht="12.75" customHeight="1">
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="4:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:5" ht="12.75" customHeight="1">
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="4:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:5" ht="12.75" customHeight="1">
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="4:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:5" ht="12.75" customHeight="1">
       <c r="D128" s="8"/>
     </row>
     <row r="129" spans="4:4" ht="12.75" customHeight="1">
@@ -5971,8 +7060,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B2:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6594,230 +7683,1212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
     <row r="38" spans="1:5">
-      <c r="D38" s="13"/>
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="D39" s="13"/>
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="D40" s="13"/>
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="D41" s="13"/>
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="D42" s="13"/>
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="D43" s="13"/>
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>107</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="D44" s="13"/>
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="D45" s="13"/>
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>109</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="D46" s="13"/>
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>110</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="D47" s="13"/>
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>111</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="13"/>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="13"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="13"/>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="13"/>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="13"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="13"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="13"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="13"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="13"/>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="13"/>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="13"/>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="13"/>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="13"/>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="13"/>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="13"/>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="13"/>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="13"/>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" s="13"/>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" s="13"/>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="13"/>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="13"/>
-    </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="13"/>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="13"/>
-    </row>
-    <row r="86" spans="4:4">
-      <c r="D86" s="13"/>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" s="13"/>
-    </row>
-    <row r="88" spans="4:4">
-      <c r="D88" s="13"/>
-    </row>
-    <row r="89" spans="4:4">
-      <c r="D89" s="13"/>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="13"/>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="13"/>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="13"/>
-    </row>
-    <row r="93" spans="4:4">
-      <c r="D93" s="13"/>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="13"/>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="13"/>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="13"/>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="13"/>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="13"/>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="13"/>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="13"/>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="13"/>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="13"/>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="13"/>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="13"/>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="13"/>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="13"/>
-    </row>
-    <row r="107" spans="4:4">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16">
+        <v>201</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16">
+        <v>202</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17">
+        <v>203</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16">
+        <v>204</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="12">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16">
+        <v>205</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="12">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17">
+        <v>206</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="12">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16">
+        <v>207</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="12">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16">
+        <v>208</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="12">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17">
+        <v>209</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="12">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16">
+        <v>211</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17">
+        <v>212</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="12">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="12">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16">
+        <v>214</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="12">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17">
+        <v>215</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="12">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16">
+        <v>216</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12">
+        <v>64</v>
+      </c>
+      <c r="B65" s="16">
+        <v>217</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="12">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17">
+        <v>218</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="12">
+        <v>66</v>
+      </c>
+      <c r="B67" s="16">
+        <v>219</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="12">
+        <v>67</v>
+      </c>
+      <c r="B68" s="16">
+        <v>220</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12">
+        <v>68</v>
+      </c>
+      <c r="B69" s="16">
+        <v>221</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="12">
+        <v>69</v>
+      </c>
+      <c r="B70" s="16">
+        <v>222</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="12">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="12">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>101</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="12">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>102</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>103</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>104</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>105</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>106</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="12">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>107</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="12">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>108</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>109</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>110</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>111</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="12">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>112</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16">
+        <v>201</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="12">
+        <v>84</v>
+      </c>
+      <c r="B85" s="16">
+        <v>202</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="12">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17">
+        <v>203</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="12">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16">
+        <v>204</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="12">
+        <v>87</v>
+      </c>
+      <c r="B88" s="16">
+        <v>205</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="12">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17">
+        <v>206</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="12">
+        <v>89</v>
+      </c>
+      <c r="B90" s="16">
+        <v>207</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="12">
+        <v>90</v>
+      </c>
+      <c r="B91" s="16">
+        <v>208</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="12">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17">
+        <v>209</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="12">
+        <v>92</v>
+      </c>
+      <c r="B93" s="16">
+        <v>210</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="12">
+        <v>93</v>
+      </c>
+      <c r="B94" s="16">
+        <v>211</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="12">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17">
+        <v>212</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="12">
+        <v>95</v>
+      </c>
+      <c r="B96" s="16">
+        <v>213</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="12">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16">
+        <v>214</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="12">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17">
+        <v>215</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="12">
+        <v>98</v>
+      </c>
+      <c r="B99" s="16">
+        <v>216</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="12">
+        <v>99</v>
+      </c>
+      <c r="B100" s="16">
+        <v>217</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="12">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17">
+        <v>218</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="12">
+        <v>101</v>
+      </c>
+      <c r="B102" s="16">
+        <v>219</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="12">
+        <v>102</v>
+      </c>
+      <c r="B103" s="16">
+        <v>220</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="12">
+        <v>103</v>
+      </c>
+      <c r="B104" s="16">
+        <v>221</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="12">
+        <v>104</v>
+      </c>
+      <c r="B105" s="16">
+        <v>222</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="12">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>135</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="D107" s="13"/>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="1:5">
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="1:5">
       <c r="D109" s="13"/>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="1:5">
       <c r="D110" s="13"/>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="1:5">
       <c r="D111" s="13"/>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="1:5">
       <c r="D112" s="13"/>
     </row>
     <row r="113" spans="4:4">
@@ -9494,8 +11565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9559,7 +11630,6 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="2">
@@ -9591,7 +11661,6 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
@@ -9623,7 +11692,6 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="2">
@@ -9655,7 +11723,6 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="2">
@@ -9687,7 +11754,6 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="2">
@@ -9774,7 +11840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9791,7 +11857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9808,7 +11874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9825,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9842,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9855,9 +11921,8 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9874,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9891,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9908,7 +11973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9921,9 +11986,8 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9936,9 +12000,8 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9951,9 +12014,8 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9966,9 +12028,8 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9981,9 +12042,8 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10000,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10017,7 +12077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10034,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10051,7 +12111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10068,7 +12128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10085,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10102,7 +12162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10119,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10136,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10153,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10170,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10183,9 +12243,8 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10198,9 +12257,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10217,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10234,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10251,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10268,7 +12326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10285,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10562,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" customHeight="1">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -10579,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" customHeight="1">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -10596,148 +12654,2152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="69" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="70" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="71" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="72" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="73" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="74" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="75" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="76" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="77" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="78" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="79" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="80" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>23</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>21</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>21</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="14">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="14">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>16</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>33</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>33</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="14">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>25</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>28</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>28</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>13</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>13</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>20</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>20</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="14">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>31</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="14">
+        <v>31</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="14">
+        <v>18</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>26</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="14">
+        <v>26</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="14">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>10</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>16</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>32</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>32</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>38</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="14">
+        <v>38</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>9</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>9</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>19</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="14">
+        <v>19</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>27</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>27</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>12</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>14</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>36</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>35</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>23</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>21</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>21</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>6</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="14">
+        <v>17</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>17</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="14">
+        <v>22</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>22</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="14">
+        <v>16</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>16</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>5</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>33</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>33</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="14">
+        <v>30</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>30</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>25</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>25</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>28</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>28</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>13</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>13</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>20</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>20</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>11</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="14">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>31</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="14">
+        <v>31</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>18</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="14">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>26</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="14">
+        <v>26</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>15</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="14">
+        <v>15</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>10</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>10</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>16</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>16</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>32</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>32</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>38</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="14">
+        <v>38</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>9</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>9</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>19</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="14">
+        <v>19</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>27</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>27</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>12</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>12</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>14</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>14</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>36</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>35</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="198" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="199" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="200" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="201" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="202" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="203" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="204" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="205" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="206" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="207" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="208" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="209" ht="12.75" customHeight="1"/>
     <row r="210" ht="12.75" customHeight="1"/>
     <row r="211" ht="12.75" customHeight="1"/>
@@ -14390,10 +18452,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEC1AC8-2093-4D23-9D9C-37D51A2AA2D4}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14407,7 +18469,7 @@
     <col min="11" max="11" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="18" t="s">
         <v>207</v>
       </c>
@@ -14441,8 +18503,11 @@
       <c r="K1" s="18" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15">
+      <c r="L1" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -14477,7 +18542,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -14512,7 +18577,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -14545,6 +18610,234 @@
       </c>
       <c r="K4" s="18" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="18">
+        <v>8</v>
+      </c>
+      <c r="H5" s="18">
+        <v>8</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="18">
+        <v>8</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="18">
+        <v>6</v>
+      </c>
+      <c r="H7" s="18">
+        <v>8</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="18">
+        <v>8</v>
+      </c>
+      <c r="H8" s="18">
+        <v>8</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="18">
+        <v>8</v>
+      </c>
+      <c r="H9" s="18">
+        <v>10</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="18">
+        <v>6</v>
+      </c>
+      <c r="H10" s="18">
+        <v>8</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
+++ b/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repozytoria\Projekt Zespołowy\ITM_ProjektZespo-owy\backend\Initializers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E934A506-29BC-4864-A7F3-4994275C76F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45788C-A3B0-43AD-9702-E21E14535B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="21" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="266">
   <si>
     <t>Stworzenie profilu organizacji</t>
   </si>
@@ -835,19 +835,25 @@
     <t>false</t>
   </si>
   <si>
-    <t>BaseCost</t>
-  </si>
-  <si>
-    <t>CostWeight</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
     <t>DeckName</t>
   </si>
   <si>
     <t>Podstawowy</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>DecisionBaseCost</t>
+  </si>
+  <si>
+    <t>DecisionCostWeight</t>
+  </si>
+  <si>
+    <t>ItemsBaseCost</t>
+  </si>
+  <si>
+    <t>ItemsCostWeight</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698B2959-394A-4495-AAAC-C421BE82C311}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1324,7 +1330,7 @@
         <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
         <v>246</v>
@@ -1335,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1343,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1354,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1367,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185C019C-5082-4509-8B3F-A49CA6E5A33C}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1378,1040 +1384,596 @@
     <col min="2" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="6">
-        <v>2</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
         <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="3">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="6">
-        <v>2</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="3">
         <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="3">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>101</v>
       </c>
       <c r="B40" t="s">
         <v>261</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>102</v>
       </c>
       <c r="B41" t="s">
         <v>261</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>104</v>
       </c>
       <c r="B43" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>105</v>
       </c>
       <c r="B44" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>106</v>
       </c>
       <c r="B45" t="s">
         <v>261</v>
       </c>
-      <c r="C45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>107</v>
       </c>
       <c r="B46" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>108</v>
       </c>
       <c r="B47" t="s">
         <v>261</v>
       </c>
-      <c r="C47" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>109</v>
       </c>
       <c r="B48" t="s">
         <v>261</v>
       </c>
-      <c r="C48" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>110</v>
       </c>
       <c r="B49" t="s">
         <v>261</v>
       </c>
-      <c r="C49" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>261</v>
       </c>
-      <c r="C50" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>112</v>
       </c>
       <c r="B51" t="s">
         <v>261</v>
       </c>
-      <c r="C51" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="16">
         <v>201</v>
       </c>
       <c r="B52" t="s">
         <v>261</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="16">
         <v>202</v>
       </c>
       <c r="B53" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="17">
         <v>203</v>
       </c>
       <c r="B54" t="s">
         <v>261</v>
       </c>
-      <c r="C54" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="16">
         <v>204</v>
       </c>
       <c r="B55" t="s">
         <v>261</v>
       </c>
-      <c r="C55" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="16">
         <v>205</v>
       </c>
       <c r="B56" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="17">
         <v>206</v>
       </c>
       <c r="B57" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="16">
         <v>207</v>
       </c>
       <c r="B58" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="1">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="16">
         <v>208</v>
       </c>
       <c r="B59" t="s">
         <v>261</v>
       </c>
-      <c r="C59" s="1">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="17">
         <v>209</v>
       </c>
       <c r="B60" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="16">
         <v>210</v>
       </c>
       <c r="B61" t="s">
         <v>261</v>
       </c>
-      <c r="C61" s="1">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="16">
         <v>211</v>
       </c>
       <c r="B62" t="s">
         <v>261</v>
       </c>
-      <c r="C62" s="12">
-        <v>20</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="17">
         <v>212</v>
       </c>
       <c r="B63" t="s">
         <v>261</v>
       </c>
-      <c r="C63" s="12">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="16">
         <v>213</v>
       </c>
       <c r="B64" t="s">
         <v>261</v>
       </c>
-      <c r="C64" s="12">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="16">
         <v>214</v>
       </c>
       <c r="B65" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="12">
-        <v>7</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="17">
         <v>215</v>
       </c>
       <c r="B66" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="12">
-        <v>6</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="16">
         <v>216</v>
       </c>
       <c r="B67" t="s">
         <v>261</v>
       </c>
-      <c r="C67" s="12">
-        <v>12</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="16">
         <v>217</v>
       </c>
       <c r="B68" t="s">
         <v>261</v>
       </c>
-      <c r="C68" s="12">
-        <v>7</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="17">
         <v>218</v>
       </c>
       <c r="B69" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="12">
-        <v>12</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="16">
         <v>219</v>
       </c>
       <c r="B70" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="12">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="16">
         <v>220</v>
       </c>
       <c r="B71" t="s">
         <v>261</v>
       </c>
-      <c r="C71" s="12">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="16">
         <v>221</v>
       </c>
       <c r="B72" t="s">
         <v>261</v>
       </c>
-      <c r="C72" s="12">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="16">
         <v>222</v>
       </c>
       <c r="B73" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="1">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>135</v>
       </c>
       <c r="B74" t="s">
         <v>261</v>
-      </c>
-      <c r="C74" s="1">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E3:E39"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2437,7 +1999,7 @@
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2453,8 +2015,14 @@
       <c r="E1" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2470,8 +2038,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2487,8 +2061,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2504,8 +2084,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2521,8 +2107,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2538,8 +2130,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2555,8 +2153,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2572,8 +2176,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2589,8 +2199,14 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2606,8 +2222,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2623,8 +2245,14 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2640,8 +2268,14 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2657,8 +2291,14 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2674,8 +2314,14 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2691,8 +2337,14 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2708,8 +2360,14 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2725,8 +2383,14 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2742,8 +2406,14 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2759,8 +2429,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2776,8 +2452,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2793,8 +2475,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2810,8 +2498,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2827,8 +2521,14 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2844,8 +2544,14 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2861,8 +2567,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2878,8 +2590,14 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2895,8 +2613,14 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2912,8 +2636,14 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2929,8 +2659,14 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2946,8 +2682,14 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2963,8 +2705,14 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2980,8 +2728,14 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2997,8 +2751,14 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3014,8 +2774,14 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3031,8 +2797,14 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3048,8 +2820,14 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3065,8 +2843,14 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3082,8 +2866,14 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F38" s="6">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3099,8 +2889,14 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3116,8 +2912,14 @@
       <c r="E40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F40" s="6">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3133,8 +2935,14 @@
       <c r="E41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F41" s="6">
+        <v>2</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3150,8 +2958,14 @@
       <c r="E42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3167,8 +2981,14 @@
       <c r="E43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3184,8 +3004,14 @@
       <c r="E44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F44" s="6">
+        <v>2</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3201,8 +3027,14 @@
       <c r="E45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F45" s="6">
+        <v>2</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3218,8 +3050,14 @@
       <c r="E46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F46" s="6">
+        <v>2</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3235,8 +3073,14 @@
       <c r="E47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F47" s="6">
+        <v>2</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3252,8 +3096,14 @@
       <c r="E48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3269,8 +3119,14 @@
       <c r="E49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F49" s="6">
+        <v>2</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3286,8 +3142,14 @@
       <c r="E50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F50" s="6">
+        <v>2</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3303,8 +3165,14 @@
       <c r="E51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F51" s="6">
+        <v>2</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3320,8 +3188,14 @@
       <c r="E52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F52" s="6">
+        <v>2</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.75" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3337,8 +3211,14 @@
       <c r="E53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F53" s="6">
+        <v>2</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.75" customHeight="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3354,8 +3234,14 @@
       <c r="E54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3371,8 +3257,14 @@
       <c r="E55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F55" s="6">
+        <v>2</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.75" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3388,8 +3280,14 @@
       <c r="E56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F56" s="6">
+        <v>2</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12.75" customHeight="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3405,8 +3303,14 @@
       <c r="E57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F57" s="6">
+        <v>2</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.75" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3422,8 +3326,14 @@
       <c r="E58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F58" s="6">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.75" customHeight="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3439,8 +3349,14 @@
       <c r="E59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F59" s="6">
+        <v>2</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.75" customHeight="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3456,8 +3372,14 @@
       <c r="E60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F60" s="6">
+        <v>2</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" customHeight="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3473,8 +3395,14 @@
       <c r="E61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F61" s="6">
+        <v>2</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.75" customHeight="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3490,8 +3418,14 @@
       <c r="E62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F62" s="6">
+        <v>2</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12.75" customHeight="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3507,8 +3441,14 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F63" s="6">
+        <v>2</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12.75" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3524,8 +3464,14 @@
       <c r="E64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F64" s="6">
+        <v>2</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12.75" customHeight="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3541,8 +3487,14 @@
       <c r="E65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F65" s="6">
+        <v>2</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12.75" customHeight="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3558,8 +3510,14 @@
       <c r="E66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F66" s="6">
+        <v>2</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12.75" customHeight="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3575,8 +3533,14 @@
       <c r="E67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F67" s="6">
+        <v>2</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.75" customHeight="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3592,8 +3556,14 @@
       <c r="E68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F68" s="6">
+        <v>2</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.75" customHeight="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3609,8 +3579,14 @@
       <c r="E69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F69" s="6">
+        <v>2</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12.75" customHeight="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3626,8 +3602,14 @@
       <c r="E70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F70" s="6">
+        <v>2</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75" customHeight="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3643,8 +3625,14 @@
       <c r="E71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F71" s="6">
+        <v>2</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.75" customHeight="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3660,8 +3648,14 @@
       <c r="E72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F72" s="6">
+        <v>2</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.75" customHeight="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3677,8 +3671,14 @@
       <c r="E73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F73" s="6">
+        <v>2</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.75" customHeight="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3694,8 +3694,14 @@
       <c r="E74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F74" s="6">
+        <v>2</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.75" customHeight="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3711,8 +3717,14 @@
       <c r="E75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F75" s="6">
+        <v>2</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.75" customHeight="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3728,8 +3740,14 @@
       <c r="E76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F76" s="6">
+        <v>2</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.75" customHeight="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3745,8 +3763,14 @@
       <c r="E77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F77" s="6">
+        <v>2</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.75" customHeight="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3762,8 +3786,14 @@
       <c r="E78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F78" s="6">
+        <v>2</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.75" customHeight="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3779,8 +3809,14 @@
       <c r="E79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F79" s="6">
+        <v>2</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.75" customHeight="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3796,8 +3832,14 @@
       <c r="E80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F80" s="6">
+        <v>2</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12.75" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3813,8 +3855,14 @@
       <c r="E81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F81" s="6">
+        <v>2</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.75" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3830,8 +3878,14 @@
       <c r="E82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F82" s="6">
+        <v>2</v>
+      </c>
+      <c r="G82" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12.75" customHeight="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3847,8 +3901,14 @@
       <c r="E83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F83" s="6">
+        <v>2</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12.75" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3864,8 +3924,14 @@
       <c r="E84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F84" s="6">
+        <v>2</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.75" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3881,8 +3947,14 @@
       <c r="E85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F85" s="6">
+        <v>2</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12.75" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3898,8 +3970,14 @@
       <c r="E86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F86" s="6">
+        <v>2</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12.75" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3915,8 +3993,14 @@
       <c r="E87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F87" s="6">
+        <v>2</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.75" customHeight="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3932,8 +4016,14 @@
       <c r="E88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F88" s="6">
+        <v>2</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12.75" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3949,8 +4039,14 @@
       <c r="E89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F89" s="6">
+        <v>2</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12.75" customHeight="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3966,8 +4062,14 @@
       <c r="E90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F90" s="6">
+        <v>2</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75" customHeight="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3983,8 +4085,14 @@
       <c r="E91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F91" s="6">
+        <v>2</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12.75" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4000,8 +4108,14 @@
       <c r="E92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F92" s="6">
+        <v>2</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="12.75" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4017,8 +4131,14 @@
       <c r="E93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F93" s="6">
+        <v>2</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="12.75" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4034,8 +4154,14 @@
       <c r="E94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F94" s="6">
+        <v>2</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="12.75" customHeight="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4051,8 +4177,14 @@
       <c r="E95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F95" s="6">
+        <v>2</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="12.75" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4068,8 +4200,14 @@
       <c r="E96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F96" s="6">
+        <v>2</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12.75" customHeight="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4085,8 +4223,14 @@
       <c r="E97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F97" s="6">
+        <v>2</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12.75" customHeight="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4102,8 +4246,14 @@
       <c r="E98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F98" s="6">
+        <v>2</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12.75" customHeight="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4119,8 +4269,14 @@
       <c r="E99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F99" s="6">
+        <v>2</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12.75" customHeight="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4136,8 +4292,14 @@
       <c r="E100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F100" s="6">
+        <v>2</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12.75" customHeight="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4153,8 +4315,14 @@
       <c r="E101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F101" s="6">
+        <v>2</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12.75" customHeight="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4170,8 +4338,14 @@
       <c r="E102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F102" s="6">
+        <v>2</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.75" customHeight="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4187,8 +4361,14 @@
       <c r="E103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F103" s="6">
+        <v>2</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12.75" customHeight="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4204,8 +4384,14 @@
       <c r="E104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F104" s="6">
+        <v>2</v>
+      </c>
+      <c r="G104" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12.75" customHeight="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4221,8 +4407,14 @@
       <c r="E105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F105" s="6">
+        <v>2</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12.75" customHeight="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4238,8 +4430,14 @@
       <c r="E106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F106" s="6">
+        <v>2</v>
+      </c>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12.75" customHeight="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4255,8 +4453,14 @@
       <c r="E107">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F107" s="6">
+        <v>2</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12.75" customHeight="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4272,8 +4476,14 @@
       <c r="E108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F108" s="6">
+        <v>2</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12.75" customHeight="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4289,8 +4499,14 @@
       <c r="E109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F109" s="6">
+        <v>2</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12.75" customHeight="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4306,8 +4522,14 @@
       <c r="E110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F110" s="6">
+        <v>2</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12.75" customHeight="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4323,8 +4545,14 @@
       <c r="E111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F111" s="6">
+        <v>2</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12.75" customHeight="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4340,8 +4568,14 @@
       <c r="E112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F112" s="6">
+        <v>2</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="12.75" customHeight="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4357,8 +4591,14 @@
       <c r="E113">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F113" s="6">
+        <v>2</v>
+      </c>
+      <c r="G113" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="12.75" customHeight="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4374,8 +4614,14 @@
       <c r="E114">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F114" s="6">
+        <v>2</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="12.75" customHeight="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4391,44 +4637,50 @@
       <c r="E115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="12.75" customHeight="1">
+      <c r="F115" s="6">
+        <v>2</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="12.75" customHeight="1">
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="1:5" ht="12.75" customHeight="1">
+    <row r="117" spans="1:7" ht="12.75" customHeight="1">
       <c r="D117" s="8"/>
     </row>
-    <row r="118" spans="1:5" ht="12.75" customHeight="1">
+    <row r="118" spans="1:7" ht="12.75" customHeight="1">
       <c r="D118" s="8"/>
     </row>
-    <row r="119" spans="1:5" ht="12.75" customHeight="1">
+    <row r="119" spans="1:7" ht="12.75" customHeight="1">
       <c r="D119" s="8"/>
     </row>
-    <row r="120" spans="1:5" ht="12.75" customHeight="1">
+    <row r="120" spans="1:7" ht="12.75" customHeight="1">
       <c r="D120" s="8"/>
     </row>
-    <row r="121" spans="1:5" ht="12.75" customHeight="1">
+    <row r="121" spans="1:7" ht="12.75" customHeight="1">
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="1:5" ht="12.75" customHeight="1">
+    <row r="122" spans="1:7" ht="12.75" customHeight="1">
       <c r="D122" s="8"/>
     </row>
-    <row r="123" spans="1:5" ht="12.75" customHeight="1">
+    <row r="123" spans="1:7" ht="12.75" customHeight="1">
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="1:5" ht="12.75" customHeight="1">
+    <row r="124" spans="1:7" ht="12.75" customHeight="1">
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="1:5" ht="12.75" customHeight="1">
+    <row r="125" spans="1:7" ht="12.75" customHeight="1">
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="1:5" ht="12.75" customHeight="1">
+    <row r="126" spans="1:7" ht="12.75" customHeight="1">
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="1:5" ht="12.75" customHeight="1">
+    <row r="127" spans="1:7" ht="12.75" customHeight="1">
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="1:5" ht="12.75" customHeight="1">
+    <row r="128" spans="1:7" ht="12.75" customHeight="1">
       <c r="D128" s="8"/>
     </row>
     <row r="129" spans="4:4" ht="12.75" customHeight="1">
@@ -7058,10 +7310,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E2:E36"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7071,7 +7323,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
@@ -7087,8 +7339,14 @@
       <c r="E1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7104,8 +7362,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7121,8 +7385,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7138,8 +7408,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7155,8 +7431,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7172,8 +7454,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7189,8 +7477,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7206,8 +7500,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7223,8 +7523,14 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7240,8 +7546,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7257,8 +7569,14 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7274,8 +7592,14 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7291,8 +7615,14 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7308,8 +7638,14 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7325,8 +7661,14 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7342,8 +7684,14 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7359,8 +7707,14 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7376,8 +7730,14 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7393,8 +7753,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7410,8 +7776,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7427,8 +7799,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7444,8 +7822,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7461,8 +7845,14 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -7478,8 +7868,14 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="12">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -7495,8 +7891,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="12">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -7512,8 +7914,14 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="12">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -7529,8 +7937,14 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="12">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -7546,8 +7960,14 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="12">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -7563,8 +7983,14 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="12">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -7580,8 +8006,14 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="12">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -7597,8 +8029,14 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="12">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -7614,8 +8052,14 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="12">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -7631,8 +8075,14 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="12">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -7648,8 +8098,14 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="12">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -7665,8 +8121,14 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -7682,8 +8144,14 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -7699,8 +8167,14 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -7716,8 +8190,14 @@
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -7733,8 +8213,14 @@
       <c r="E39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -7750,8 +8236,14 @@
       <c r="E40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -7767,8 +8259,14 @@
       <c r="E41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -7784,8 +8282,14 @@
       <c r="E42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -7801,8 +8305,14 @@
       <c r="E43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -7818,8 +8328,14 @@
       <c r="E44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -7835,8 +8351,14 @@
       <c r="E45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -7852,8 +8374,14 @@
       <c r="E46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -7869,8 +8397,14 @@
       <c r="E47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -7886,8 +8420,14 @@
       <c r="E48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -7903,8 +8443,14 @@
       <c r="E49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -7920,8 +8466,14 @@
       <c r="E50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -7937,8 +8489,14 @@
       <c r="E51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -7954,8 +8512,14 @@
       <c r="E52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -7971,8 +8535,14 @@
       <c r="E53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -7988,8 +8558,14 @@
       <c r="E54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -8005,8 +8581,14 @@
       <c r="E55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -8022,8 +8604,14 @@
       <c r="E56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -8039,8 +8627,14 @@
       <c r="E57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -8056,8 +8650,14 @@
       <c r="E58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -8073,8 +8673,14 @@
       <c r="E59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="12">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -8090,8 +8696,14 @@
       <c r="E60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="12">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -8107,8 +8719,14 @@
       <c r="E61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="12">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -8124,8 +8742,14 @@
       <c r="E62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="12">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -8141,8 +8765,14 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="12">
+        <v>6</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -8158,8 +8788,14 @@
       <c r="E64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="12">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -8175,8 +8811,14 @@
       <c r="E65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="12">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -8192,8 +8834,14 @@
       <c r="E66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="12">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -8209,8 +8857,14 @@
       <c r="E67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="12">
+        <v>7</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -8226,8 +8880,14 @@
       <c r="E68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="12">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -8243,8 +8903,14 @@
       <c r="E69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="12">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -8260,8 +8926,14 @@
       <c r="E70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="1">
+        <v>8</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -8277,8 +8949,14 @@
       <c r="E71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="1">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -8294,8 +8972,14 @@
       <c r="E72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -8311,8 +8995,14 @@
       <c r="E73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -8328,8 +9018,14 @@
       <c r="E74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -8345,8 +9041,14 @@
       <c r="E75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -8362,8 +9064,14 @@
       <c r="E76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -8379,8 +9087,14 @@
       <c r="E77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -8396,8 +9110,14 @@
       <c r="E78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -8413,8 +9133,14 @@
       <c r="E79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -8430,8 +9156,14 @@
       <c r="E80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -8447,8 +9179,14 @@
       <c r="E81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -8464,8 +9202,14 @@
       <c r="E82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -8481,8 +9225,14 @@
       <c r="E83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -8498,8 +9248,14 @@
       <c r="E84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -8515,8 +9271,14 @@
       <c r="E85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -8532,8 +9294,14 @@
       <c r="E86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -8549,8 +9317,14 @@
       <c r="E87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -8566,8 +9340,14 @@
       <c r="E88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -8583,8 +9363,14 @@
       <c r="E89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -8600,8 +9386,14 @@
       <c r="E90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="1">
+        <v>3</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -8617,8 +9409,14 @@
       <c r="E91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -8634,8 +9432,14 @@
       <c r="E92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="1">
+        <v>3</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -8651,8 +9455,14 @@
       <c r="E93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -8668,8 +9478,14 @@
       <c r="E94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="12">
+        <v>20</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -8685,8 +9501,14 @@
       <c r="E95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="12">
+        <v>8</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -8702,8 +9524,14 @@
       <c r="E96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="12">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -8719,8 +9547,14 @@
       <c r="E97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="12">
+        <v>7</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -8736,8 +9570,14 @@
       <c r="E98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="12">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -8753,8 +9593,14 @@
       <c r="E99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="12">
+        <v>12</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -8770,8 +9616,14 @@
       <c r="E100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="12">
+        <v>7</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -8787,8 +9639,14 @@
       <c r="E101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="12">
+        <v>12</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="12">
         <v>101</v>
       </c>
@@ -8804,8 +9662,14 @@
       <c r="E102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="12">
+        <v>7</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="12">
         <v>102</v>
       </c>
@@ -8821,8 +9685,14 @@
       <c r="E103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="12">
+        <v>8</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -8838,8 +9708,14 @@
       <c r="E104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="12">
+        <v>8</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="12">
         <v>104</v>
       </c>
@@ -8855,8 +9731,14 @@
       <c r="E105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="1">
+        <v>8</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="12">
         <v>105</v>
       </c>
@@ -8872,23 +9754,29 @@
       <c r="E106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="1">
+        <v>8</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="D107" s="13"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:7">
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:7">
       <c r="D109" s="13"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:7">
       <c r="D110" s="13"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:7">
       <c r="D111" s="13"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:7">
       <c r="D112" s="13"/>
     </row>
     <row r="113" spans="4:4">
@@ -11565,8 +12453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E66"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15603,7 +16491,7 @@
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18849,8 +19737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19218,7 +20106,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="6">
         <v>23</v>
@@ -19232,7 +20120,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="6">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1">
@@ -19243,7 +20131,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="6">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1">
@@ -19254,7 +20142,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="6">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1">
@@ -19262,10 +20150,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1">
@@ -19273,7 +20161,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="6">
         <v>23</v>
@@ -19284,7 +20172,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="6">
         <v>23</v>
@@ -19298,7 +20186,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="6">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1">
@@ -19306,10 +20194,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" s="6">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1">
@@ -19317,7 +20205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="6">
         <v>23</v>
@@ -19328,7 +20216,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="6">
         <v>23</v>
@@ -19339,7 +20227,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" s="6">
         <v>23</v>
@@ -19350,7 +20238,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" s="6">
         <v>23</v>
@@ -19364,7 +20252,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="6">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" customHeight="1">
@@ -19372,10 +20260,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="6">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1">
@@ -19383,7 +20271,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="6">
         <v>23</v>
@@ -19394,7 +20282,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="6">
         <v>23</v>
@@ -19408,7 +20296,7 @@
         <v>35</v>
       </c>
       <c r="C50" s="6">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1">
@@ -19416,10 +20304,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" s="6">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75" customHeight="1">
@@ -19427,7 +20315,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C52" s="6">
         <v>23</v>
@@ -19437,8 +20325,8 @@
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="16">
-        <v>37</v>
+      <c r="B53" s="17">
+        <v>100</v>
       </c>
       <c r="C53" s="6">
         <v>23</v>
@@ -19448,8 +20336,8 @@
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="17">
-        <v>100</v>
+      <c r="B54" s="16">
+        <v>101</v>
       </c>
       <c r="C54" s="6">
         <v>23</v>
@@ -19460,7 +20348,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="16">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="6">
         <v>23</v>
@@ -19470,8 +20358,8 @@
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="16">
-        <v>102</v>
+      <c r="B56" s="17">
+        <v>103</v>
       </c>
       <c r="C56" s="6">
         <v>23</v>
@@ -19481,8 +20369,8 @@
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="17">
-        <v>103</v>
+      <c r="B57" s="16">
+        <v>104</v>
       </c>
       <c r="C57" s="6">
         <v>23</v>
@@ -19493,7 +20381,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="16">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="6">
         <v>23</v>
@@ -19503,8 +20391,8 @@
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="16">
-        <v>105</v>
+      <c r="B59" s="17">
+        <v>106</v>
       </c>
       <c r="C59" s="6">
         <v>23</v>
@@ -19514,8 +20402,8 @@
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="17">
-        <v>106</v>
+      <c r="B60" s="16">
+        <v>107</v>
       </c>
       <c r="C60" s="6">
         <v>23</v>
@@ -19526,7 +20414,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="16">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="6">
         <v>23</v>
@@ -19536,8 +20424,8 @@
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="16">
-        <v>108</v>
+      <c r="B62" s="17">
+        <v>109</v>
       </c>
       <c r="C62" s="6">
         <v>23</v>
@@ -19547,8 +20435,8 @@
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="17">
-        <v>109</v>
+      <c r="B63" s="16">
+        <v>110</v>
       </c>
       <c r="C63" s="6">
         <v>23</v>
@@ -19559,7 +20447,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="16">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="6">
         <v>23</v>
@@ -19569,8 +20457,8 @@
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="16">
-        <v>111</v>
+      <c r="B65" s="17">
+        <v>112</v>
       </c>
       <c r="C65" s="6">
         <v>23</v>
@@ -19580,8 +20468,8 @@
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="17">
-        <v>112</v>
+      <c r="B66" s="16">
+        <v>201</v>
       </c>
       <c r="C66" s="6">
         <v>23</v>
@@ -19592,7 +20480,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="16">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C67" s="6">
         <v>23</v>
@@ -19602,8 +20490,8 @@
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="16">
-        <v>202</v>
+      <c r="B68" s="17">
+        <v>203</v>
       </c>
       <c r="C68" s="6">
         <v>23</v>
@@ -19613,8 +20501,8 @@
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="17">
-        <v>203</v>
+      <c r="B69" s="16">
+        <v>204</v>
       </c>
       <c r="C69" s="6">
         <v>23</v>
@@ -19625,7 +20513,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="16">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C70" s="6">
         <v>23</v>
@@ -19635,8 +20523,8 @@
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="16">
-        <v>205</v>
+      <c r="B71" s="17">
+        <v>206</v>
       </c>
       <c r="C71" s="6">
         <v>23</v>
@@ -19646,8 +20534,8 @@
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="17">
-        <v>206</v>
+      <c r="B72" s="16">
+        <v>207</v>
       </c>
       <c r="C72" s="6">
         <v>23</v>
@@ -19658,7 +20546,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="16">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C73" s="6">
         <v>23</v>
@@ -19668,8 +20556,8 @@
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="16">
-        <v>208</v>
+      <c r="B74" s="17">
+        <v>209</v>
       </c>
       <c r="C74" s="6">
         <v>23</v>
@@ -19679,8 +20567,8 @@
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="17">
-        <v>209</v>
+      <c r="B75" s="16">
+        <v>210</v>
       </c>
       <c r="C75" s="6">
         <v>23</v>
@@ -19691,7 +20579,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="16">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C76" s="6">
         <v>23</v>
@@ -19701,8 +20589,8 @@
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="16">
-        <v>211</v>
+      <c r="B77" s="17">
+        <v>212</v>
       </c>
       <c r="C77" s="6">
         <v>23</v>
@@ -19712,8 +20600,8 @@
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="17">
-        <v>212</v>
+      <c r="B78" s="16">
+        <v>213</v>
       </c>
       <c r="C78" s="6">
         <v>23</v>
@@ -19724,7 +20612,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="16">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C79" s="6">
         <v>23</v>
@@ -19734,8 +20622,8 @@
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="16">
-        <v>214</v>
+      <c r="B80" s="17">
+        <v>215</v>
       </c>
       <c r="C80" s="6">
         <v>23</v>
@@ -19745,8 +20633,8 @@
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="17">
-        <v>215</v>
+      <c r="B81" s="16">
+        <v>216</v>
       </c>
       <c r="C81" s="6">
         <v>23</v>
@@ -19757,7 +20645,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="16">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C82" s="6">
         <v>23</v>
@@ -19767,8 +20655,8 @@
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="16">
-        <v>217</v>
+      <c r="B83" s="17">
+        <v>218</v>
       </c>
       <c r="C83" s="6">
         <v>23</v>
@@ -19778,8 +20666,8 @@
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="17">
-        <v>218</v>
+      <c r="B84" s="16">
+        <v>219</v>
       </c>
       <c r="C84" s="6">
         <v>23</v>
@@ -19790,7 +20678,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="16">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C85" s="6">
         <v>23</v>
@@ -19801,7 +20689,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="16">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C86" s="6">
         <v>23</v>
@@ -19812,7 +20700,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="16">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C87" s="6">
         <v>23</v>
@@ -19822,19 +20710,19 @@
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="16">
-        <v>222</v>
+      <c r="B88" s="17">
+        <v>100</v>
       </c>
       <c r="C88" s="6">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.75" customHeight="1">
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="17">
-        <v>100</v>
+      <c r="B89" s="16">
+        <v>101</v>
       </c>
       <c r="C89" s="6">
         <v>13</v>
@@ -19845,7 +20733,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="16">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90" s="6">
         <v>13</v>
@@ -19855,8 +20743,8 @@
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="16">
-        <v>102</v>
+      <c r="B91" s="17">
+        <v>103</v>
       </c>
       <c r="C91" s="6">
         <v>13</v>
@@ -19866,8 +20754,8 @@
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="17">
-        <v>103</v>
+      <c r="B92" s="16">
+        <v>104</v>
       </c>
       <c r="C92" s="6">
         <v>13</v>
@@ -19878,7 +20766,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="16">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93" s="6">
         <v>13</v>
@@ -19888,8 +20776,8 @@
       <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="16">
-        <v>105</v>
+      <c r="B94" s="17">
+        <v>106</v>
       </c>
       <c r="C94" s="6">
         <v>13</v>
@@ -19899,8 +20787,8 @@
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="17">
-        <v>106</v>
+      <c r="B95" s="16">
+        <v>107</v>
       </c>
       <c r="C95" s="6">
         <v>13</v>
@@ -19911,7 +20799,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="16">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C96" s="6">
         <v>13</v>
@@ -19921,8 +20809,8 @@
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="16">
-        <v>108</v>
+      <c r="B97" s="17">
+        <v>109</v>
       </c>
       <c r="C97" s="6">
         <v>13</v>
@@ -19932,8 +20820,8 @@
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="17">
-        <v>109</v>
+      <c r="B98" s="16">
+        <v>110</v>
       </c>
       <c r="C98" s="6">
         <v>13</v>
@@ -19944,7 +20832,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="16">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C99" s="6">
         <v>13</v>
@@ -19954,8 +20842,8 @@
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="16">
-        <v>111</v>
+      <c r="B100" s="17">
+        <v>112</v>
       </c>
       <c r="C100" s="6">
         <v>13</v>
@@ -19965,8 +20853,8 @@
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="17">
-        <v>112</v>
+      <c r="B101" s="16">
+        <v>201</v>
       </c>
       <c r="C101" s="6">
         <v>13</v>
@@ -19977,7 +20865,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="16">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C102" s="6">
         <v>13</v>
@@ -19987,8 +20875,8 @@
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="16">
-        <v>202</v>
+      <c r="B103" s="17">
+        <v>203</v>
       </c>
       <c r="C103" s="6">
         <v>13</v>
@@ -19998,8 +20886,8 @@
       <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="17">
-        <v>203</v>
+      <c r="B104" s="16">
+        <v>204</v>
       </c>
       <c r="C104" s="6">
         <v>13</v>
@@ -20010,7 +20898,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C105" s="6">
         <v>13</v>
@@ -20020,8 +20908,8 @@
       <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="16">
-        <v>205</v>
+      <c r="B106" s="17">
+        <v>206</v>
       </c>
       <c r="C106" s="6">
         <v>13</v>
@@ -20031,8 +20919,8 @@
       <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="17">
-        <v>206</v>
+      <c r="B107" s="16">
+        <v>207</v>
       </c>
       <c r="C107" s="6">
         <v>13</v>
@@ -20043,7 +20931,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="16">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C108" s="6">
         <v>13</v>
@@ -20053,8 +20941,8 @@
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="16">
-        <v>208</v>
+      <c r="B109" s="17">
+        <v>209</v>
       </c>
       <c r="C109" s="6">
         <v>13</v>
@@ -20064,8 +20952,8 @@
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="17">
-        <v>209</v>
+      <c r="B110" s="16">
+        <v>210</v>
       </c>
       <c r="C110" s="6">
         <v>13</v>
@@ -20076,7 +20964,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="16">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C111" s="6">
         <v>13</v>
@@ -20086,8 +20974,8 @@
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="16">
-        <v>211</v>
+      <c r="B112" s="17">
+        <v>212</v>
       </c>
       <c r="C112" s="6">
         <v>13</v>
@@ -20097,8 +20985,8 @@
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="17">
-        <v>212</v>
+      <c r="B113" s="16">
+        <v>213</v>
       </c>
       <c r="C113" s="6">
         <v>13</v>
@@ -20109,7 +20997,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="16">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C114" s="6">
         <v>13</v>
@@ -20119,8 +21007,8 @@
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="16">
-        <v>214</v>
+      <c r="B115" s="17">
+        <v>215</v>
       </c>
       <c r="C115" s="6">
         <v>13</v>
@@ -20130,8 +21018,8 @@
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="17">
-        <v>215</v>
+      <c r="B116" s="16">
+        <v>216</v>
       </c>
       <c r="C116" s="6">
         <v>13</v>
@@ -20142,7 +21030,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="16">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C117" s="6">
         <v>13</v>
@@ -20152,8 +21040,8 @@
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="16">
-        <v>217</v>
+      <c r="B118" s="17">
+        <v>218</v>
       </c>
       <c r="C118" s="6">
         <v>13</v>
@@ -20163,8 +21051,8 @@
       <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="17">
-        <v>218</v>
+      <c r="B119" s="16">
+        <v>219</v>
       </c>
       <c r="C119" s="6">
         <v>13</v>
@@ -20175,7 +21063,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="16">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C120" s="6">
         <v>13</v>
@@ -20186,7 +21074,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="16">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C121" s="6">
         <v>13</v>
@@ -20197,22 +21085,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="16">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C122" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A123" s="6">
-        <v>122</v>
-      </c>
-      <c r="B123" s="16">
-        <v>222</v>
-      </c>
-      <c r="C123" s="6">
-        <v>13</v>
-      </c>
+      <c r="A123" s="6"/>
     </row>
     <row r="124" spans="1:3" ht="12.75" customHeight="1"/>
     <row r="125" spans="1:3" ht="12.75" customHeight="1"/>

--- a/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
+++ b/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repozytoria\Projekt Zespołowy\ITM_ProjektZespo-owy\backend\Initializers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45788C-A3B0-43AD-9702-E21E14535B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F296263-3532-45C7-B131-A359C55927DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="21" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="263">
   <si>
     <t>Stworzenie profilu organizacji</t>
   </si>
@@ -748,30 +748,6 @@
     <t>#008000;#FFFF00;#FFA500;#FF0000</t>
   </si>
   <si>
-    <t>Plansza zaawansowana</t>
-  </si>
-  <si>
-    <t>Początkowy;Rozwinięty;Zaawansowany;Ekspercki;Mistrzowski</t>
-  </si>
-  <si>
-    <t>Poziom 1;Poziom 22;Poziom 3;Poziom 4</t>
-  </si>
-  <si>
-    <t>Etapy rozwoju kompetencji</t>
-  </si>
-  <si>
-    <t>Poziomy umiejętności</t>
-  </si>
-  <si>
-    <t>#333333</t>
-  </si>
-  <si>
-    <t>#f5f5f5</t>
-  </si>
-  <si>
-    <t>#3498db;#2ecc71;#f1c40f;#e74c3c;#9b59b6</t>
-  </si>
-  <si>
     <t>Mapa strategiczna</t>
   </si>
   <si>
@@ -855,16 +831,39 @@
   <si>
     <t>ItemsCostWeight</t>
   </si>
+  <si>
+    <t>Plansza konkurencji</t>
+  </si>
+  <si>
+    <t>Podstawowa;Zintegrowana;Inteligentna;Autonomiczna</t>
+  </si>
+  <si>
+    <t>Operacyjna;Adaptacyjna;Strategiczna;Innowacyjna</t>
+  </si>
+  <si>
+    <t>Automatyzacja Procesów</t>
+  </si>
+  <si>
+    <t>Zwinność Procesów</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -966,50 +965,51 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
@@ -1245,22 +1245,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
         <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1268,16 +1268,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F2">
         <v>255</v>
@@ -1288,16 +1288,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F3">
         <v>255</v>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1330,10 +1330,10 @@
         <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1701,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1709,7 +1709,7 @@
         <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1773,7 +1773,7 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1861,7 +1861,7 @@
         <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>220</v>
       </c>
       <c r="B71" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2016,10 +2016,10 @@
         <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
@@ -7340,10 +7340,10 @@
         <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12496,7 +12496,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -12513,7 +12513,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -12527,7 +12527,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>147</v>
@@ -12544,7 +12544,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -12558,7 +12558,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>148</v>
@@ -12575,7 +12575,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -12589,7 +12589,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>149</v>
@@ -12606,7 +12606,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -12620,7 +12620,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>150</v>
@@ -12637,7 +12637,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -12651,7 +12651,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>151</v>
@@ -12668,7 +12668,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>152</v>
@@ -12685,7 +12685,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>153</v>
@@ -12702,7 +12702,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>154</v>
@@ -12719,7 +12719,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>155</v>
@@ -12736,7 +12736,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>156</v>
@@ -12753,7 +12753,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>157</v>
@@ -12770,7 +12770,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>158</v>
@@ -12787,7 +12787,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>159</v>
@@ -12804,7 +12804,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -12818,7 +12818,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>160</v>
@@ -12835,7 +12835,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>161</v>
@@ -12852,7 +12852,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>162</v>
@@ -12869,7 +12869,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -12883,7 +12883,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -12897,7 +12897,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -12939,7 +12939,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>150</v>
@@ -12956,7 +12956,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>163</v>
@@ -12973,7 +12973,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>164</v>
@@ -12990,7 +12990,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>165</v>
@@ -13007,7 +13007,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>166</v>
@@ -13024,7 +13024,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>167</v>
@@ -13041,7 +13041,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>168</v>
@@ -13058,7 +13058,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>169</v>
@@ -13075,7 +13075,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>170</v>
@@ -13092,7 +13092,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>171</v>
@@ -13109,7 +13109,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>172</v>
@@ -13126,7 +13126,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -13140,7 +13140,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -13154,7 +13154,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>172</v>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>173</v>
@@ -13188,7 +13188,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>174</v>
@@ -13205,7 +13205,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>175</v>
@@ -13222,7 +13222,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>176</v>
@@ -13239,7 +13239,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>177</v>
@@ -13256,7 +13256,7 @@
         <v>32</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>178</v>
@@ -13273,7 +13273,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>179</v>
@@ -13290,7 +13290,7 @@
         <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>180</v>
@@ -13307,7 +13307,7 @@
         <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -13321,7 +13321,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -13335,7 +13335,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -13349,7 +13349,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>181</v>
@@ -13366,7 +13366,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -13380,7 +13380,7 @@
         <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>182</v>
@@ -13397,7 +13397,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>183</v>
@@ -13414,7 +13414,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>184</v>
@@ -13431,7 +13431,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>185</v>
@@ -13448,7 +13448,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>186</v>
@@ -13465,7 +13465,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>187</v>
@@ -13482,7 +13482,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>188</v>
@@ -13499,7 +13499,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>189</v>
@@ -13516,7 +13516,7 @@
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>188</v>
@@ -13533,7 +13533,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>189</v>
@@ -13550,7 +13550,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -13567,7 +13567,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -13582,7 +13582,7 @@
         <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>147</v>
@@ -13599,7 +13599,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -13614,7 +13614,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>148</v>
@@ -13631,7 +13631,7 @@
         <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -13646,7 +13646,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>149</v>
@@ -13663,7 +13663,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -13678,7 +13678,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>150</v>
@@ -13695,7 +13695,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -13710,7 +13710,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>151</v>
@@ -13727,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>152</v>
@@ -13744,7 +13744,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>153</v>
@@ -13761,7 +13761,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>154</v>
@@ -13778,7 +13778,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>155</v>
@@ -13795,7 +13795,7 @@
         <v>33</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>156</v>
@@ -13812,7 +13812,7 @@
         <v>33</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>157</v>
@@ -13829,7 +13829,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>158</v>
@@ -13846,7 +13846,7 @@
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>159</v>
@@ -13863,7 +13863,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -13878,7 +13878,7 @@
         <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>160</v>
@@ -13895,7 +13895,7 @@
         <v>25</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>161</v>
@@ -13912,7 +13912,7 @@
         <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>162</v>
@@ -13929,7 +13929,7 @@
         <v>28</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -13944,7 +13944,7 @@
         <v>28</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -13959,7 +13959,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -13974,7 +13974,7 @@
         <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -13989,7 +13989,7 @@
         <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -14004,7 +14004,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>150</v>
@@ -14021,7 +14021,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>163</v>
@@ -14038,7 +14038,7 @@
         <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>164</v>
@@ -14055,7 +14055,7 @@
         <v>31</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>165</v>
@@ -14072,7 +14072,7 @@
         <v>31</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>166</v>
@@ -14089,7 +14089,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>167</v>
@@ -14106,7 +14106,7 @@
         <v>18</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>168</v>
@@ -14123,7 +14123,7 @@
         <v>26</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>169</v>
@@ -14140,7 +14140,7 @@
         <v>26</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>170</v>
@@ -14157,7 +14157,7 @@
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>171</v>
@@ -14174,7 +14174,7 @@
         <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>172</v>
@@ -14191,7 +14191,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -14206,7 +14206,7 @@
         <v>4</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -14221,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>172</v>
@@ -14238,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>173</v>
@@ -14255,7 +14255,7 @@
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>174</v>
@@ -14272,7 +14272,7 @@
         <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>175</v>
@@ -14289,7 +14289,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>176</v>
@@ -14306,7 +14306,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>177</v>
@@ -14323,7 +14323,7 @@
         <v>32</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>178</v>
@@ -14340,7 +14340,7 @@
         <v>32</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>179</v>
@@ -14357,7 +14357,7 @@
         <v>38</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>180</v>
@@ -14374,7 +14374,7 @@
         <v>38</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -14388,7 +14388,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -14402,7 +14402,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -14416,7 +14416,7 @@
         <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>181</v>
@@ -14433,7 +14433,7 @@
         <v>19</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -14447,7 +14447,7 @@
         <v>27</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>182</v>
@@ -14464,7 +14464,7 @@
         <v>27</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>183</v>
@@ -14481,7 +14481,7 @@
         <v>12</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>184</v>
@@ -14498,7 +14498,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>185</v>
@@ -14515,7 +14515,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>186</v>
@@ -14532,7 +14532,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>187</v>
@@ -14549,7 +14549,7 @@
         <v>14</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>188</v>
@@ -14566,7 +14566,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>189</v>
@@ -14583,7 +14583,7 @@
         <v>36</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>188</v>
@@ -14600,7 +14600,7 @@
         <v>35</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>189</v>
@@ -14617,7 +14617,7 @@
         <v>23</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E132">
         <v>3</v>
@@ -14634,7 +14634,7 @@
         <v>21</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -14649,7 +14649,7 @@
         <v>21</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>147</v>
@@ -14666,7 +14666,7 @@
         <v>6</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E135">
         <v>3</v>
@@ -14681,7 +14681,7 @@
         <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>148</v>
@@ -14698,7 +14698,7 @@
         <v>17</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E137">
         <v>3</v>
@@ -14713,7 +14713,7 @@
         <v>17</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>149</v>
@@ -14730,7 +14730,7 @@
         <v>22</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -14745,7 +14745,7 @@
         <v>22</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>150</v>
@@ -14762,7 +14762,7 @@
         <v>16</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E141">
         <v>3</v>
@@ -14777,7 +14777,7 @@
         <v>16</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>151</v>
@@ -14794,7 +14794,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>152</v>
@@ -14811,7 +14811,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>153</v>
@@ -14828,7 +14828,7 @@
         <v>5</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>154</v>
@@ -14845,7 +14845,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>155</v>
@@ -14862,7 +14862,7 @@
         <v>33</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>156</v>
@@ -14879,7 +14879,7 @@
         <v>33</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>157</v>
@@ -14896,7 +14896,7 @@
         <v>8</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>158</v>
@@ -14913,7 +14913,7 @@
         <v>8</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>159</v>
@@ -14930,7 +14930,7 @@
         <v>30</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E151">
         <v>3</v>
@@ -14945,7 +14945,7 @@
         <v>30</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>160</v>
@@ -14962,7 +14962,7 @@
         <v>25</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>161</v>
@@ -14979,7 +14979,7 @@
         <v>25</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>162</v>
@@ -14996,7 +14996,7 @@
         <v>28</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E155">
         <v>3</v>
@@ -15011,7 +15011,7 @@
         <v>28</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E156">
         <v>3</v>
@@ -15026,7 +15026,7 @@
         <v>13</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E157">
         <v>3</v>
@@ -15041,7 +15041,7 @@
         <v>13</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E158">
         <v>3</v>
@@ -15056,7 +15056,7 @@
         <v>20</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E159">
         <v>3</v>
@@ -15071,7 +15071,7 @@
         <v>20</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>150</v>
@@ -15088,7 +15088,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>163</v>
@@ -15105,7 +15105,7 @@
         <v>11</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>164</v>
@@ -15122,7 +15122,7 @@
         <v>31</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>165</v>
@@ -15139,7 +15139,7 @@
         <v>31</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>166</v>
@@ -15156,7 +15156,7 @@
         <v>18</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>167</v>
@@ -15173,7 +15173,7 @@
         <v>18</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>168</v>
@@ -15190,7 +15190,7 @@
         <v>26</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>169</v>
@@ -15207,7 +15207,7 @@
         <v>26</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>170</v>
@@ -15224,7 +15224,7 @@
         <v>15</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>171</v>
@@ -15241,7 +15241,7 @@
         <v>15</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>172</v>
@@ -15258,7 +15258,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E171">
         <v>3</v>
@@ -15273,7 +15273,7 @@
         <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -15288,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>172</v>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>173</v>
@@ -15322,7 +15322,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>174</v>
@@ -15339,7 +15339,7 @@
         <v>10</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>175</v>
@@ -15356,7 +15356,7 @@
         <v>16</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>176</v>
@@ -15373,7 +15373,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>177</v>
@@ -15390,7 +15390,7 @@
         <v>32</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>178</v>
@@ -15407,7 +15407,7 @@
         <v>32</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>179</v>
@@ -15424,7 +15424,7 @@
         <v>38</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>180</v>
@@ -15441,7 +15441,7 @@
         <v>38</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E182">
         <v>3</v>
@@ -15455,7 +15455,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E183">
         <v>3</v>
@@ -15469,7 +15469,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E184">
         <v>3</v>
@@ -15483,7 +15483,7 @@
         <v>19</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>181</v>
@@ -15500,7 +15500,7 @@
         <v>19</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E186">
         <v>3</v>
@@ -15514,7 +15514,7 @@
         <v>27</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>182</v>
@@ -15531,7 +15531,7 @@
         <v>27</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>183</v>
@@ -15548,7 +15548,7 @@
         <v>12</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>184</v>
@@ -15565,7 +15565,7 @@
         <v>12</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>185</v>
@@ -15582,7 +15582,7 @@
         <v>2</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>186</v>
@@ -15599,7 +15599,7 @@
         <v>2</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>187</v>
@@ -15616,7 +15616,7 @@
         <v>14</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>188</v>
@@ -15633,7 +15633,7 @@
         <v>14</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>189</v>
@@ -15650,7 +15650,7 @@
         <v>36</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>188</v>
@@ -15667,7 +15667,7 @@
         <v>35</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>189</v>
@@ -16490,8 +16490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="K226" sqref="K226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16504,7 +16504,7 @@
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>204</v>
       </c>
@@ -16526,8 +16526,11 @@
       <c r="G1" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -16549,8 +16552,11 @@
       <c r="G2" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -16572,8 +16578,11 @@
       <c r="G3" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -16595,8 +16604,11 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -16618,8 +16630,11 @@
       <c r="G5" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -16641,8 +16656,11 @@
       <c r="G6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -16664,8 +16682,11 @@
       <c r="G7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -16687,8 +16708,11 @@
       <c r="G8" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -16710,8 +16734,11 @@
       <c r="G9" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -16733,8 +16760,11 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -16756,8 +16786,11 @@
       <c r="G11" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -16779,8 +16812,11 @@
       <c r="G12" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -16802,8 +16838,11 @@
       <c r="G13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -16825,8 +16864,11 @@
       <c r="G14" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -16848,8 +16890,11 @@
       <c r="G15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -16871,8 +16916,11 @@
       <c r="G16" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -16894,8 +16942,11 @@
       <c r="G17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -16917,8 +16968,11 @@
       <c r="G18" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -16940,8 +16994,11 @@
       <c r="G19" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -16963,8 +17020,11 @@
       <c r="G20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -16986,8 +17046,11 @@
       <c r="G21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -17009,8 +17072,11 @@
       <c r="G22" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -17032,8 +17098,11 @@
       <c r="G23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -17055,8 +17124,11 @@
       <c r="G24" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -17078,8 +17150,11 @@
       <c r="G25" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -17101,8 +17176,11 @@
       <c r="G26" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -17124,8 +17202,11 @@
       <c r="G27" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -17147,8 +17228,11 @@
       <c r="G28" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -17170,8 +17254,11 @@
       <c r="G29" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -17193,8 +17280,11 @@
       <c r="G30" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -17216,8 +17306,11 @@
       <c r="G31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -17237,6 +17330,9 @@
         <v>1</v>
       </c>
       <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -17262,6 +17358,9 @@
       <c r="G33" s="9">
         <v>1</v>
       </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1">
       <c r="A34" s="9">
@@ -17285,6 +17384,9 @@
       <c r="G34" s="9">
         <v>1</v>
       </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1">
       <c r="A35" s="9">
@@ -17308,6 +17410,9 @@
       <c r="G35" s="9">
         <v>1</v>
       </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1">
       <c r="A36" s="9">
@@ -17331,6 +17436,9 @@
       <c r="G36" s="9">
         <v>1</v>
       </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
       <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1">
@@ -17355,6 +17463,9 @@
       <c r="G37" s="9">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1">
       <c r="A38" s="9">
@@ -17378,6 +17489,9 @@
       <c r="G38" s="9">
         <v>1</v>
       </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1">
       <c r="A39" s="9">
@@ -17401,6 +17515,9 @@
       <c r="G39" s="9">
         <v>1</v>
       </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1">
       <c r="A40" s="9">
@@ -17424,6 +17541,9 @@
       <c r="G40" s="9">
         <v>1</v>
       </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="13.5">
       <c r="A41" s="9">
@@ -17447,6 +17567,9 @@
       <c r="G41" s="9">
         <v>1</v>
       </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="13.5">
       <c r="A42" s="9">
@@ -17470,6 +17593,9 @@
       <c r="G42" s="9">
         <v>1</v>
       </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1">
       <c r="A43" s="9">
@@ -17493,6 +17619,9 @@
       <c r="G43" s="9">
         <v>1</v>
       </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1">
       <c r="A44" s="9">
@@ -17516,6 +17645,9 @@
       <c r="G44" s="9">
         <v>1</v>
       </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1">
       <c r="A45" s="9">
@@ -17539,6 +17671,9 @@
       <c r="G45" s="9">
         <v>1</v>
       </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1">
       <c r="A46" s="9">
@@ -17562,6 +17697,9 @@
       <c r="G46" s="9">
         <v>1</v>
       </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1">
       <c r="A47" s="9">
@@ -17585,6 +17723,9 @@
       <c r="G47" s="9">
         <v>1</v>
       </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1">
       <c r="A48" s="9">
@@ -17608,8 +17749,11 @@
       <c r="G48" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -17631,8 +17775,11 @@
       <c r="G49" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -17654,8 +17801,11 @@
       <c r="G50" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -17677,8 +17827,11 @@
       <c r="G51" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -17700,8 +17853,11 @@
       <c r="G52" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -17723,8 +17879,11 @@
       <c r="G53" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -17746,8 +17905,11 @@
       <c r="G54" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -17769,8 +17931,11 @@
       <c r="G55" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -17792,8 +17957,11 @@
       <c r="G56" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -17815,8 +17983,11 @@
       <c r="G57" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -17838,8 +18009,11 @@
       <c r="G58" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -17861,8 +18035,11 @@
       <c r="G59" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -17884,8 +18061,11 @@
       <c r="G60" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -17907,8 +18087,11 @@
       <c r="G61" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -17930,8 +18113,11 @@
       <c r="G62" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -17953,8 +18139,11 @@
       <c r="G63" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -17976,8 +18165,11 @@
       <c r="G64" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.75" customHeight="1">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -17999,8 +18191,11 @@
       <c r="G65" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="12.75" customHeight="1">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -18022,8 +18217,11 @@
       <c r="G66" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -18045,8 +18243,11 @@
       <c r="G67" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="12.75" customHeight="1">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -18068,8 +18269,11 @@
       <c r="G68" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" customHeight="1">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -18091,8 +18295,11 @@
       <c r="G69" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -18114,8 +18321,11 @@
       <c r="G70" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" customHeight="1">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -18137,8 +18347,11 @@
       <c r="G71" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="12.75" customHeight="1">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -18160,8 +18373,11 @@
       <c r="G72" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -18183,8 +18399,11 @@
       <c r="G73" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" customHeight="1">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -18206,8 +18425,11 @@
       <c r="G74" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="12.75" customHeight="1">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -18229,8 +18451,11 @@
       <c r="G75" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.75" customHeight="1">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -18252,8 +18477,11 @@
       <c r="G76" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.75" customHeight="1">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -18275,8 +18503,11 @@
       <c r="G77" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="12.75" customHeight="1">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -18298,8 +18529,11 @@
       <c r="G78" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="12.75" customHeight="1">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -18321,8 +18555,11 @@
       <c r="G79" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="12.75" customHeight="1">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -18344,8 +18581,11 @@
       <c r="G80" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="12.75" customHeight="1">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -18367,8 +18607,11 @@
       <c r="G81" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="12.75" customHeight="1">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -18390,8 +18633,11 @@
       <c r="G82" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="12.75" customHeight="1">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="12.75" customHeight="1">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -18413,180 +18659,4283 @@
       <c r="G83" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="86" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="87" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="89" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="90" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="91" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="92" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="93" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="94" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="95" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="96" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="12">
+        <v>25</v>
+      </c>
+      <c r="D84" s="12">
+        <v>85</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="9">
+        <v>1</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="12">
+        <v>30</v>
+      </c>
+      <c r="D85" s="12">
+        <v>80</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>3</v>
+      </c>
+      <c r="C86" s="12">
+        <v>35</v>
+      </c>
+      <c r="D86" s="12">
+        <v>90</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>4</v>
+      </c>
+      <c r="C87" s="12">
+        <v>30</v>
+      </c>
+      <c r="D87" s="12">
+        <v>85</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5</v>
+      </c>
+      <c r="C88" s="12">
+        <v>25</v>
+      </c>
+      <c r="D88" s="12">
+        <v>80</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>6</v>
+      </c>
+      <c r="C89" s="12">
+        <v>40</v>
+      </c>
+      <c r="D89" s="12">
+        <v>85</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>7</v>
+      </c>
+      <c r="C90" s="12">
+        <v>50</v>
+      </c>
+      <c r="D90" s="12">
+        <v>90</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>8</v>
+      </c>
+      <c r="C91" s="12">
+        <v>45</v>
+      </c>
+      <c r="D91" s="12">
+        <v>85</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>9</v>
+      </c>
+      <c r="C92" s="12">
+        <v>60</v>
+      </c>
+      <c r="D92" s="12">
+        <v>100</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>10</v>
+      </c>
+      <c r="C93" s="12">
+        <v>45</v>
+      </c>
+      <c r="D93" s="12">
+        <v>80</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>11</v>
+      </c>
+      <c r="C94" s="12">
+        <v>50</v>
+      </c>
+      <c r="D94" s="12">
+        <v>95</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>12</v>
+      </c>
+      <c r="C95" s="12">
+        <v>55</v>
+      </c>
+      <c r="D95" s="12">
+        <v>95</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>13</v>
+      </c>
+      <c r="C96" s="12">
+        <v>40</v>
+      </c>
+      <c r="D96" s="12">
+        <v>85</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>14</v>
+      </c>
+      <c r="C97" s="12">
+        <v>65</v>
+      </c>
+      <c r="D97" s="12">
+        <v>85</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>15</v>
+      </c>
+      <c r="C98" s="12">
+        <v>45</v>
+      </c>
+      <c r="D98" s="12">
+        <v>80</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>16</v>
+      </c>
+      <c r="C99" s="12">
+        <v>50</v>
+      </c>
+      <c r="D99" s="12">
+        <v>90</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="9">
+        <v>1</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>17</v>
+      </c>
+      <c r="C100" s="12">
+        <v>55</v>
+      </c>
+      <c r="D100" s="12">
+        <v>85</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>18</v>
+      </c>
+      <c r="C101" s="12">
+        <v>35</v>
+      </c>
+      <c r="D101" s="12">
+        <v>80</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="9">
+        <v>1</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A102" s="9">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>19</v>
+      </c>
+      <c r="C102" s="12">
+        <v>40</v>
+      </c>
+      <c r="D102" s="12">
+        <v>85</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>20</v>
+      </c>
+      <c r="C103" s="12">
+        <v>30</v>
+      </c>
+      <c r="D103" s="12">
+        <v>75</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A104" s="9">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>21</v>
+      </c>
+      <c r="C104" s="12">
+        <v>35</v>
+      </c>
+      <c r="D104" s="12">
+        <v>80</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1</v>
+      </c>
+      <c r="G104" s="9">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>22</v>
+      </c>
+      <c r="C105" s="12">
+        <v>25</v>
+      </c>
+      <c r="D105" s="12">
+        <v>85</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>23</v>
+      </c>
+      <c r="C106" s="12">
+        <v>40</v>
+      </c>
+      <c r="D106" s="12">
+        <v>75</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1</v>
+      </c>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>24</v>
+      </c>
+      <c r="C107" s="12">
+        <v>35</v>
+      </c>
+      <c r="D107" s="12">
+        <v>75</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A108" s="9">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>25</v>
+      </c>
+      <c r="C108" s="12">
+        <v>25</v>
+      </c>
+      <c r="D108" s="12">
+        <v>70</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>26</v>
+      </c>
+      <c r="C109" s="12">
+        <v>55</v>
+      </c>
+      <c r="D109" s="12">
+        <v>95</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A110" s="9">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>27</v>
+      </c>
+      <c r="C110" s="12">
+        <v>50</v>
+      </c>
+      <c r="D110" s="12">
+        <v>85</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>28</v>
+      </c>
+      <c r="C111" s="12">
+        <v>55</v>
+      </c>
+      <c r="D111" s="12">
+        <v>80</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A112" s="9">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>29</v>
+      </c>
+      <c r="C112" s="12">
+        <v>40</v>
+      </c>
+      <c r="D112" s="12">
+        <v>85</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>30</v>
+      </c>
+      <c r="C113" s="12">
+        <v>45</v>
+      </c>
+      <c r="D113" s="12">
+        <v>85</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G113" s="9">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A114" s="9">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>31</v>
+      </c>
+      <c r="C114" s="12">
+        <v>40</v>
+      </c>
+      <c r="D114" s="12">
+        <v>75</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>32</v>
+      </c>
+      <c r="C115" s="12">
+        <v>50</v>
+      </c>
+      <c r="D115" s="12">
+        <v>90</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A116" s="9">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>33</v>
+      </c>
+      <c r="C116" s="12">
+        <v>35</v>
+      </c>
+      <c r="D116" s="12">
+        <v>85</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="9">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A117" s="9">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>34</v>
+      </c>
+      <c r="C117" s="12">
+        <v>45</v>
+      </c>
+      <c r="D117" s="12">
+        <v>85</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A118" s="9">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>35</v>
+      </c>
+      <c r="C118" s="12">
+        <v>50</v>
+      </c>
+      <c r="D118" s="12">
+        <v>95</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>36</v>
+      </c>
+      <c r="C119" s="12">
+        <v>60</v>
+      </c>
+      <c r="D119" s="12">
+        <v>95</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1</v>
+      </c>
+      <c r="G119" s="9">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A120" s="9">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>37</v>
+      </c>
+      <c r="C120" s="12">
+        <v>55</v>
+      </c>
+      <c r="D120" s="12">
+        <v>100</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>38</v>
+      </c>
+      <c r="C121" s="12">
+        <v>35</v>
+      </c>
+      <c r="D121" s="12">
+        <v>80</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A122" s="9">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>39</v>
+      </c>
+      <c r="C122" s="12">
+        <v>60</v>
+      </c>
+      <c r="D122" s="12">
+        <v>100</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A123" s="9">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>40</v>
+      </c>
+      <c r="C123" s="12">
+        <v>10</v>
+      </c>
+      <c r="D123" s="12">
+        <v>60</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A124" s="9">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>41</v>
+      </c>
+      <c r="C124" s="12">
+        <v>70</v>
+      </c>
+      <c r="D124" s="12">
+        <v>70</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A125" s="9">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+      <c r="C125" s="12">
+        <v>20</v>
+      </c>
+      <c r="D125" s="12">
+        <v>10</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2</v>
+      </c>
+      <c r="F125" s="9">
+        <v>1</v>
+      </c>
+      <c r="G125" s="9">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A126" s="9">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" s="12">
+        <v>30</v>
+      </c>
+      <c r="D126" s="12">
+        <v>20</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>3</v>
+      </c>
+      <c r="C127" s="12">
+        <v>35</v>
+      </c>
+      <c r="D127" s="12">
+        <v>25</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+      <c r="F127" s="9">
+        <v>1</v>
+      </c>
+      <c r="G127" s="9">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A128" s="9">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>4</v>
+      </c>
+      <c r="C128" s="12">
+        <v>30</v>
+      </c>
+      <c r="D128" s="12">
+        <v>25</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2</v>
+      </c>
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+      <c r="G128" s="9">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A129" s="9">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>5</v>
+      </c>
+      <c r="C129" s="12">
+        <v>80</v>
+      </c>
+      <c r="D129" s="12">
+        <v>20</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="9">
+        <v>1</v>
+      </c>
+      <c r="G129" s="9">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A130" s="9">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <v>6</v>
+      </c>
+      <c r="C130" s="12">
+        <v>40</v>
+      </c>
+      <c r="D130" s="12">
+        <v>30</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="9">
+        <v>1</v>
+      </c>
+      <c r="G130" s="9">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A131" s="9">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <v>7</v>
+      </c>
+      <c r="C131" s="12">
+        <v>50</v>
+      </c>
+      <c r="D131" s="12">
+        <v>40</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="9">
+        <v>1</v>
+      </c>
+      <c r="G131" s="9">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A132" s="9">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <v>8</v>
+      </c>
+      <c r="C132" s="12">
+        <v>45</v>
+      </c>
+      <c r="D132" s="12">
+        <v>35</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2</v>
+      </c>
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+      <c r="G132" s="9">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <v>9</v>
+      </c>
+      <c r="C133" s="12">
+        <v>60</v>
+      </c>
+      <c r="D133" s="12">
+        <v>40</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2</v>
+      </c>
+      <c r="F133" s="9">
+        <v>1</v>
+      </c>
+      <c r="G133" s="9">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A134" s="9">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <v>10</v>
+      </c>
+      <c r="C134" s="12">
+        <v>80</v>
+      </c>
+      <c r="D134" s="12">
+        <v>20</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1</v>
+      </c>
+      <c r="G134" s="9">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A135" s="9">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <v>11</v>
+      </c>
+      <c r="C135" s="12">
+        <v>50</v>
+      </c>
+      <c r="D135" s="12">
+        <v>45</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2</v>
+      </c>
+      <c r="F135" s="9">
+        <v>1</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A136" s="9">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <v>12</v>
+      </c>
+      <c r="C136" s="12">
+        <v>40</v>
+      </c>
+      <c r="D136" s="12">
+        <v>90</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2</v>
+      </c>
+      <c r="F136" s="9">
+        <v>1</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A137" s="9">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <v>13</v>
+      </c>
+      <c r="C137" s="12">
+        <v>30</v>
+      </c>
+      <c r="D137" s="12">
+        <v>80</v>
+      </c>
+      <c r="E137" s="1">
+        <v>2</v>
+      </c>
+      <c r="F137" s="9">
+        <v>1</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A138" s="9">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <v>14</v>
+      </c>
+      <c r="C138" s="12">
+        <v>50</v>
+      </c>
+      <c r="D138" s="12">
+        <v>85</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <v>15</v>
+      </c>
+      <c r="C139" s="12">
+        <v>40</v>
+      </c>
+      <c r="D139" s="12">
+        <v>75</v>
+      </c>
+      <c r="E139" s="1">
+        <v>2</v>
+      </c>
+      <c r="F139" s="9">
+        <v>1</v>
+      </c>
+      <c r="G139" s="9">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A140" s="9">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <v>16</v>
+      </c>
+      <c r="C140" s="12">
+        <v>45</v>
+      </c>
+      <c r="D140" s="12">
+        <v>80</v>
+      </c>
+      <c r="E140" s="1">
+        <v>2</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1</v>
+      </c>
+      <c r="G140" s="9">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A141" s="9">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <v>17</v>
+      </c>
+      <c r="C141" s="12">
+        <v>55</v>
+      </c>
+      <c r="D141" s="12">
+        <v>80</v>
+      </c>
+      <c r="E141" s="1">
+        <v>2</v>
+      </c>
+      <c r="F141" s="9">
+        <v>1</v>
+      </c>
+      <c r="G141" s="9">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A142" s="9">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <v>18</v>
+      </c>
+      <c r="C142" s="12">
+        <v>80</v>
+      </c>
+      <c r="D142" s="12">
+        <v>20</v>
+      </c>
+      <c r="E142" s="1">
+        <v>2</v>
+      </c>
+      <c r="F142" s="9">
+        <v>1</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A143" s="9">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <v>19</v>
+      </c>
+      <c r="C143" s="12">
+        <v>30</v>
+      </c>
+      <c r="D143" s="12">
+        <v>25</v>
+      </c>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A144" s="9">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>20</v>
+      </c>
+      <c r="C144" s="12">
+        <v>80</v>
+      </c>
+      <c r="D144" s="12">
+        <v>20</v>
+      </c>
+      <c r="E144" s="1">
+        <v>2</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <v>21</v>
+      </c>
+      <c r="C145" s="12">
+        <v>60</v>
+      </c>
+      <c r="D145" s="12">
+        <v>30</v>
+      </c>
+      <c r="E145" s="1">
+        <v>2</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A146" s="9">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <v>22</v>
+      </c>
+      <c r="C146" s="12">
+        <v>20</v>
+      </c>
+      <c r="D146" s="12">
+        <v>30</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="F146" s="9">
+        <v>1</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A147" s="9">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <v>23</v>
+      </c>
+      <c r="C147" s="12">
+        <v>80</v>
+      </c>
+      <c r="D147" s="12">
+        <v>20</v>
+      </c>
+      <c r="E147" s="1">
+        <v>2</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A148" s="9">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <v>24</v>
+      </c>
+      <c r="C148" s="12">
+        <v>80</v>
+      </c>
+      <c r="D148" s="12">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1">
+        <v>2</v>
+      </c>
+      <c r="F148" s="9">
+        <v>1</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A149" s="9">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <v>25</v>
+      </c>
+      <c r="C149" s="12">
+        <v>70</v>
+      </c>
+      <c r="D149" s="12">
+        <v>10</v>
+      </c>
+      <c r="E149" s="1">
+        <v>2</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A150" s="9">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <v>26</v>
+      </c>
+      <c r="C150" s="12">
+        <v>55</v>
+      </c>
+      <c r="D150" s="12">
+        <v>90</v>
+      </c>
+      <c r="E150" s="1">
+        <v>2</v>
+      </c>
+      <c r="F150" s="9">
+        <v>1</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A151" s="9">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <v>27</v>
+      </c>
+      <c r="C151" s="12">
+        <v>40</v>
+      </c>
+      <c r="D151" s="12">
+        <v>80</v>
+      </c>
+      <c r="E151" s="1">
+        <v>2</v>
+      </c>
+      <c r="F151" s="9">
+        <v>1</v>
+      </c>
+      <c r="G151" s="9">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A152" s="9">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3">
+        <v>28</v>
+      </c>
+      <c r="C152" s="12">
+        <v>55</v>
+      </c>
+      <c r="D152" s="12">
+        <v>80</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2</v>
+      </c>
+      <c r="F152" s="9">
+        <v>1</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A153" s="9">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <v>29</v>
+      </c>
+      <c r="C153" s="12">
+        <v>60</v>
+      </c>
+      <c r="D153" s="12">
+        <v>30</v>
+      </c>
+      <c r="E153" s="1">
+        <v>2</v>
+      </c>
+      <c r="F153" s="9">
+        <v>1</v>
+      </c>
+      <c r="G153" s="9">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A154" s="9">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <v>30</v>
+      </c>
+      <c r="C154" s="12">
+        <v>30</v>
+      </c>
+      <c r="D154" s="12">
+        <v>85</v>
+      </c>
+      <c r="E154" s="1">
+        <v>2</v>
+      </c>
+      <c r="F154" s="9">
+        <v>1</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A155" s="9">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3">
+        <v>31</v>
+      </c>
+      <c r="C155" s="12">
+        <v>40</v>
+      </c>
+      <c r="D155" s="12">
+        <v>75</v>
+      </c>
+      <c r="E155" s="1">
+        <v>2</v>
+      </c>
+      <c r="F155" s="9">
+        <v>1</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A156" s="9">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3">
+        <v>32</v>
+      </c>
+      <c r="C156" s="12">
+        <v>90</v>
+      </c>
+      <c r="D156" s="12">
+        <v>80</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2</v>
+      </c>
+      <c r="F156" s="9">
+        <v>1</v>
+      </c>
+      <c r="G156" s="9">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A157" s="9">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3">
+        <v>33</v>
+      </c>
+      <c r="C157" s="12">
+        <v>20</v>
+      </c>
+      <c r="D157" s="12">
+        <v>30</v>
+      </c>
+      <c r="E157" s="1">
+        <v>2</v>
+      </c>
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
+      <c r="G157" s="9">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A158" s="9">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3">
+        <v>34</v>
+      </c>
+      <c r="C158" s="12">
+        <v>30</v>
+      </c>
+      <c r="D158" s="12">
+        <v>80</v>
+      </c>
+      <c r="E158" s="1">
+        <v>2</v>
+      </c>
+      <c r="F158" s="9">
+        <v>1</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A159" s="9">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3">
+        <v>35</v>
+      </c>
+      <c r="C159" s="12">
+        <v>40</v>
+      </c>
+      <c r="D159" s="12">
+        <v>95</v>
+      </c>
+      <c r="E159" s="1">
+        <v>2</v>
+      </c>
+      <c r="F159" s="9">
+        <v>1</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A160" s="9">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3">
+        <v>36</v>
+      </c>
+      <c r="C160" s="12">
+        <v>50</v>
+      </c>
+      <c r="D160" s="12">
+        <v>95</v>
+      </c>
+      <c r="E160" s="1">
+        <v>2</v>
+      </c>
+      <c r="F160" s="9">
+        <v>1</v>
+      </c>
+      <c r="G160" s="9">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A161" s="9">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3">
+        <v>37</v>
+      </c>
+      <c r="C161" s="12">
+        <v>90</v>
+      </c>
+      <c r="D161" s="12">
+        <v>80</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2</v>
+      </c>
+      <c r="F161" s="9">
+        <v>1</v>
+      </c>
+      <c r="G161" s="9">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A162" s="9">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3">
+        <v>38</v>
+      </c>
+      <c r="C162" s="12">
+        <v>80</v>
+      </c>
+      <c r="D162" s="12">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1">
+        <v>2</v>
+      </c>
+      <c r="F162" s="9">
+        <v>1</v>
+      </c>
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A163" s="9">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3">
+        <v>39</v>
+      </c>
+      <c r="C163" s="12">
+        <v>60</v>
+      </c>
+      <c r="D163" s="12">
+        <v>80</v>
+      </c>
+      <c r="E163" s="1">
+        <v>2</v>
+      </c>
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+      <c r="G163" s="9">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A164" s="9">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3">
+        <v>40</v>
+      </c>
+      <c r="C164" s="12">
+        <v>80</v>
+      </c>
+      <c r="D164" s="12">
+        <v>70</v>
+      </c>
+      <c r="E164" s="1">
+        <v>2</v>
+      </c>
+      <c r="F164" s="9">
+        <v>1</v>
+      </c>
+      <c r="G164" s="9">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A165" s="9">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3">
+        <v>41</v>
+      </c>
+      <c r="C165" s="12">
+        <v>90</v>
+      </c>
+      <c r="D165" s="12">
+        <v>90</v>
+      </c>
+      <c r="E165" s="1">
+        <v>2</v>
+      </c>
+      <c r="F165" s="9">
+        <v>1</v>
+      </c>
+      <c r="G165" s="9">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A166" s="9">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+      <c r="C166" s="12">
+        <v>25</v>
+      </c>
+      <c r="D166" s="12">
+        <v>85</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166" s="9">
+        <v>1</v>
+      </c>
+      <c r="G166" s="9">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A167" s="9">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3">
+        <v>2</v>
+      </c>
+      <c r="C167" s="12">
+        <v>30</v>
+      </c>
+      <c r="D167" s="12">
+        <v>80</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167" s="9">
+        <v>1</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A168" s="9">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3">
+        <v>3</v>
+      </c>
+      <c r="C168" s="12">
+        <v>35</v>
+      </c>
+      <c r="D168" s="12">
+        <v>90</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168" s="9">
+        <v>1</v>
+      </c>
+      <c r="G168" s="9">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A169" s="9">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3">
+        <v>4</v>
+      </c>
+      <c r="C169" s="12">
+        <v>30</v>
+      </c>
+      <c r="D169" s="12">
+        <v>85</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="9">
+        <v>1</v>
+      </c>
+      <c r="G169" s="9">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A170" s="9">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5</v>
+      </c>
+      <c r="C170" s="12">
+        <v>25</v>
+      </c>
+      <c r="D170" s="12">
+        <v>80</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="9">
+        <v>1</v>
+      </c>
+      <c r="G170" s="9">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A171" s="9">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3">
+        <v>6</v>
+      </c>
+      <c r="C171" s="12">
+        <v>40</v>
+      </c>
+      <c r="D171" s="12">
+        <v>85</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1</v>
+      </c>
+      <c r="G171" s="9">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A172" s="9">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3">
+        <v>7</v>
+      </c>
+      <c r="C172" s="12">
+        <v>50</v>
+      </c>
+      <c r="D172" s="12">
+        <v>90</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="9">
+        <v>1</v>
+      </c>
+      <c r="G172" s="9">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A173" s="9">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3">
+        <v>8</v>
+      </c>
+      <c r="C173" s="12">
+        <v>45</v>
+      </c>
+      <c r="D173" s="12">
+        <v>85</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="9">
+        <v>1</v>
+      </c>
+      <c r="G173" s="9">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A174" s="9">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3">
+        <v>9</v>
+      </c>
+      <c r="C174" s="12">
+        <v>60</v>
+      </c>
+      <c r="D174" s="12">
+        <v>100</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="9">
+        <v>1</v>
+      </c>
+      <c r="G174" s="9">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A175" s="9">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3">
+        <v>10</v>
+      </c>
+      <c r="C175" s="12">
+        <v>45</v>
+      </c>
+      <c r="D175" s="12">
+        <v>80</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175" s="9">
+        <v>1</v>
+      </c>
+      <c r="G175" s="9">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A176" s="9">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3">
+        <v>11</v>
+      </c>
+      <c r="C176" s="12">
+        <v>50</v>
+      </c>
+      <c r="D176" s="12">
+        <v>95</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="9">
+        <v>1</v>
+      </c>
+      <c r="G176" s="9">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A177" s="9">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3">
+        <v>12</v>
+      </c>
+      <c r="C177" s="12">
+        <v>55</v>
+      </c>
+      <c r="D177" s="12">
+        <v>95</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="9">
+        <v>1</v>
+      </c>
+      <c r="G177" s="9">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A178" s="9">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3">
+        <v>13</v>
+      </c>
+      <c r="C178" s="12">
+        <v>40</v>
+      </c>
+      <c r="D178" s="12">
+        <v>85</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="9">
+        <v>1</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A179" s="9">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3">
+        <v>14</v>
+      </c>
+      <c r="C179" s="12">
+        <v>65</v>
+      </c>
+      <c r="D179" s="12">
+        <v>85</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="9">
+        <v>1</v>
+      </c>
+      <c r="G179" s="9">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A180" s="9">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3">
+        <v>15</v>
+      </c>
+      <c r="C180" s="12">
+        <v>45</v>
+      </c>
+      <c r="D180" s="12">
+        <v>80</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="9">
+        <v>1</v>
+      </c>
+      <c r="G180" s="9">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A181" s="9">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3">
+        <v>16</v>
+      </c>
+      <c r="C181" s="12">
+        <v>50</v>
+      </c>
+      <c r="D181" s="12">
+        <v>90</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="9">
+        <v>1</v>
+      </c>
+      <c r="G181" s="9">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A182" s="9">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3">
+        <v>17</v>
+      </c>
+      <c r="C182" s="12">
+        <v>55</v>
+      </c>
+      <c r="D182" s="12">
+        <v>85</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="9">
+        <v>1</v>
+      </c>
+      <c r="G182" s="9">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A183" s="9">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3">
+        <v>18</v>
+      </c>
+      <c r="C183" s="12">
+        <v>35</v>
+      </c>
+      <c r="D183" s="12">
+        <v>80</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="9">
+        <v>1</v>
+      </c>
+      <c r="G183" s="9">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A184" s="9">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3">
+        <v>19</v>
+      </c>
+      <c r="C184" s="12">
+        <v>40</v>
+      </c>
+      <c r="D184" s="12">
+        <v>85</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="9">
+        <v>1</v>
+      </c>
+      <c r="G184" s="9">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A185" s="9">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3">
+        <v>20</v>
+      </c>
+      <c r="C185" s="12">
+        <v>30</v>
+      </c>
+      <c r="D185" s="12">
+        <v>75</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="9">
+        <v>1</v>
+      </c>
+      <c r="G185" s="9">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A186" s="9">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3">
+        <v>21</v>
+      </c>
+      <c r="C186" s="12">
+        <v>35</v>
+      </c>
+      <c r="D186" s="12">
+        <v>80</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="9">
+        <v>1</v>
+      </c>
+      <c r="G186" s="9">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A187" s="9">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3">
+        <v>22</v>
+      </c>
+      <c r="C187" s="12">
+        <v>25</v>
+      </c>
+      <c r="D187" s="12">
+        <v>85</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="9">
+        <v>1</v>
+      </c>
+      <c r="G187" s="9">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A188" s="9">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3">
+        <v>23</v>
+      </c>
+      <c r="C188" s="12">
+        <v>40</v>
+      </c>
+      <c r="D188" s="12">
+        <v>75</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="9">
+        <v>1</v>
+      </c>
+      <c r="G188" s="9">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A189" s="9">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3">
+        <v>24</v>
+      </c>
+      <c r="C189" s="12">
+        <v>35</v>
+      </c>
+      <c r="D189" s="12">
+        <v>75</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="9">
+        <v>1</v>
+      </c>
+      <c r="G189" s="9">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A190" s="9">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3">
+        <v>25</v>
+      </c>
+      <c r="C190" s="12">
+        <v>25</v>
+      </c>
+      <c r="D190" s="12">
+        <v>70</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="9">
+        <v>1</v>
+      </c>
+      <c r="G190" s="9">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A191" s="9">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3">
+        <v>26</v>
+      </c>
+      <c r="C191" s="12">
+        <v>55</v>
+      </c>
+      <c r="D191" s="12">
+        <v>95</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
+      <c r="F191" s="9">
+        <v>1</v>
+      </c>
+      <c r="G191" s="9">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A192" s="9">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3">
+        <v>27</v>
+      </c>
+      <c r="C192" s="12">
+        <v>50</v>
+      </c>
+      <c r="D192" s="12">
+        <v>85</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="9">
+        <v>1</v>
+      </c>
+      <c r="G192" s="9">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A193" s="9">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3">
+        <v>28</v>
+      </c>
+      <c r="C193" s="12">
+        <v>55</v>
+      </c>
+      <c r="D193" s="12">
+        <v>80</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193" s="9">
+        <v>1</v>
+      </c>
+      <c r="G193" s="9">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A194" s="9">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3">
+        <v>29</v>
+      </c>
+      <c r="C194" s="12">
+        <v>40</v>
+      </c>
+      <c r="D194" s="12">
+        <v>85</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194" s="9">
+        <v>1</v>
+      </c>
+      <c r="G194" s="9">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A195" s="9">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3">
+        <v>30</v>
+      </c>
+      <c r="C195" s="12">
+        <v>45</v>
+      </c>
+      <c r="D195" s="12">
+        <v>85</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195" s="9">
+        <v>1</v>
+      </c>
+      <c r="G195" s="9">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A196" s="9">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3">
+        <v>31</v>
+      </c>
+      <c r="C196" s="12">
+        <v>40</v>
+      </c>
+      <c r="D196" s="12">
+        <v>75</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="9">
+        <v>1</v>
+      </c>
+      <c r="G196" s="9">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A197" s="9">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3">
+        <v>32</v>
+      </c>
+      <c r="C197" s="12">
+        <v>50</v>
+      </c>
+      <c r="D197" s="12">
+        <v>90</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1</v>
+      </c>
+      <c r="G197" s="9">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A198" s="9">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3">
+        <v>33</v>
+      </c>
+      <c r="C198" s="12">
+        <v>35</v>
+      </c>
+      <c r="D198" s="12">
+        <v>85</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="9">
+        <v>1</v>
+      </c>
+      <c r="G198" s="9">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A199" s="9">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3">
+        <v>34</v>
+      </c>
+      <c r="C199" s="12">
+        <v>45</v>
+      </c>
+      <c r="D199" s="12">
+        <v>85</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F199" s="9">
+        <v>1</v>
+      </c>
+      <c r="G199" s="9">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A200" s="9">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3">
+        <v>35</v>
+      </c>
+      <c r="C200" s="12">
+        <v>50</v>
+      </c>
+      <c r="D200" s="12">
+        <v>95</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="9">
+        <v>1</v>
+      </c>
+      <c r="G200" s="9">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A201" s="9">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3">
+        <v>36</v>
+      </c>
+      <c r="C201" s="12">
+        <v>60</v>
+      </c>
+      <c r="D201" s="12">
+        <v>95</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201" s="9">
+        <v>1</v>
+      </c>
+      <c r="G201" s="9">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A202" s="9">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3">
+        <v>37</v>
+      </c>
+      <c r="C202" s="12">
+        <v>55</v>
+      </c>
+      <c r="D202" s="12">
+        <v>100</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="9">
+        <v>1</v>
+      </c>
+      <c r="G202" s="9">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A203" s="9">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3">
+        <v>38</v>
+      </c>
+      <c r="C203" s="12">
+        <v>35</v>
+      </c>
+      <c r="D203" s="12">
+        <v>80</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="9">
+        <v>1</v>
+      </c>
+      <c r="G203" s="9">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A204" s="9">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3">
+        <v>39</v>
+      </c>
+      <c r="C204" s="12">
+        <v>60</v>
+      </c>
+      <c r="D204" s="12">
+        <v>100</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="9">
+        <v>1</v>
+      </c>
+      <c r="G204" s="9">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A205" s="9">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3">
+        <v>40</v>
+      </c>
+      <c r="C205" s="12">
+        <v>10</v>
+      </c>
+      <c r="D205" s="12">
+        <v>60</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F205" s="9">
+        <v>1</v>
+      </c>
+      <c r="G205" s="9">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A206" s="9">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3">
+        <v>41</v>
+      </c>
+      <c r="C206" s="12">
+        <v>70</v>
+      </c>
+      <c r="D206" s="12">
+        <v>70</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206" s="9">
+        <v>1</v>
+      </c>
+      <c r="G206" s="9">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A207" s="9">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1</v>
+      </c>
+      <c r="C207" s="12">
+        <v>20</v>
+      </c>
+      <c r="D207" s="12">
+        <v>10</v>
+      </c>
+      <c r="E207" s="1">
+        <v>2</v>
+      </c>
+      <c r="F207" s="9">
+        <v>1</v>
+      </c>
+      <c r="G207" s="9">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A208" s="9">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3">
+        <v>2</v>
+      </c>
+      <c r="C208" s="12">
+        <v>30</v>
+      </c>
+      <c r="D208" s="12">
+        <v>20</v>
+      </c>
+      <c r="E208" s="1">
+        <v>2</v>
+      </c>
+      <c r="F208" s="9">
+        <v>1</v>
+      </c>
+      <c r="G208" s="9">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A209" s="9">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3">
+        <v>3</v>
+      </c>
+      <c r="C209" s="12">
+        <v>35</v>
+      </c>
+      <c r="D209" s="12">
+        <v>25</v>
+      </c>
+      <c r="E209" s="1">
+        <v>2</v>
+      </c>
+      <c r="F209" s="9">
+        <v>1</v>
+      </c>
+      <c r="G209" s="9">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A210" s="9">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3">
+        <v>4</v>
+      </c>
+      <c r="C210" s="12">
+        <v>30</v>
+      </c>
+      <c r="D210" s="12">
+        <v>25</v>
+      </c>
+      <c r="E210" s="1">
+        <v>2</v>
+      </c>
+      <c r="F210" s="9">
+        <v>1</v>
+      </c>
+      <c r="G210" s="9">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A211" s="9">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3">
+        <v>5</v>
+      </c>
+      <c r="C211" s="12">
+        <v>80</v>
+      </c>
+      <c r="D211" s="12">
+        <v>20</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2</v>
+      </c>
+      <c r="F211" s="9">
+        <v>1</v>
+      </c>
+      <c r="G211" s="9">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A212" s="9">
+        <v>211</v>
+      </c>
+      <c r="B212" s="3">
+        <v>6</v>
+      </c>
+      <c r="C212" s="12">
+        <v>40</v>
+      </c>
+      <c r="D212" s="12">
+        <v>30</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2</v>
+      </c>
+      <c r="F212" s="9">
+        <v>1</v>
+      </c>
+      <c r="G212" s="9">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A213" s="9">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3">
+        <v>7</v>
+      </c>
+      <c r="C213" s="12">
+        <v>50</v>
+      </c>
+      <c r="D213" s="12">
+        <v>40</v>
+      </c>
+      <c r="E213" s="1">
+        <v>2</v>
+      </c>
+      <c r="F213" s="9">
+        <v>1</v>
+      </c>
+      <c r="G213" s="9">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A214" s="9">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3">
+        <v>8</v>
+      </c>
+      <c r="C214" s="12">
+        <v>45</v>
+      </c>
+      <c r="D214" s="12">
+        <v>35</v>
+      </c>
+      <c r="E214" s="1">
+        <v>2</v>
+      </c>
+      <c r="F214" s="9">
+        <v>1</v>
+      </c>
+      <c r="G214" s="9">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A215" s="9">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3">
+        <v>9</v>
+      </c>
+      <c r="C215" s="12">
+        <v>60</v>
+      </c>
+      <c r="D215" s="12">
+        <v>40</v>
+      </c>
+      <c r="E215" s="1">
+        <v>2</v>
+      </c>
+      <c r="F215" s="9">
+        <v>1</v>
+      </c>
+      <c r="G215" s="9">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A216" s="9">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3">
+        <v>10</v>
+      </c>
+      <c r="C216" s="12">
+        <v>80</v>
+      </c>
+      <c r="D216" s="12">
+        <v>20</v>
+      </c>
+      <c r="E216" s="1">
+        <v>2</v>
+      </c>
+      <c r="F216" s="9">
+        <v>1</v>
+      </c>
+      <c r="G216" s="9">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A217" s="9">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3">
+        <v>11</v>
+      </c>
+      <c r="C217" s="12">
+        <v>50</v>
+      </c>
+      <c r="D217" s="12">
+        <v>45</v>
+      </c>
+      <c r="E217" s="1">
+        <v>2</v>
+      </c>
+      <c r="F217" s="9">
+        <v>1</v>
+      </c>
+      <c r="G217" s="9">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A218" s="9">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3">
+        <v>12</v>
+      </c>
+      <c r="C218" s="12">
+        <v>40</v>
+      </c>
+      <c r="D218" s="12">
+        <v>90</v>
+      </c>
+      <c r="E218" s="1">
+        <v>2</v>
+      </c>
+      <c r="F218" s="9">
+        <v>1</v>
+      </c>
+      <c r="G218" s="9">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A219" s="9">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3">
+        <v>13</v>
+      </c>
+      <c r="C219" s="12">
+        <v>30</v>
+      </c>
+      <c r="D219" s="12">
+        <v>80</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2</v>
+      </c>
+      <c r="F219" s="9">
+        <v>1</v>
+      </c>
+      <c r="G219" s="9">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A220" s="9">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3">
+        <v>14</v>
+      </c>
+      <c r="C220" s="12">
+        <v>50</v>
+      </c>
+      <c r="D220" s="12">
+        <v>85</v>
+      </c>
+      <c r="E220" s="1">
+        <v>2</v>
+      </c>
+      <c r="F220" s="9">
+        <v>1</v>
+      </c>
+      <c r="G220" s="9">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A221" s="9">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3">
+        <v>15</v>
+      </c>
+      <c r="C221" s="12">
+        <v>40</v>
+      </c>
+      <c r="D221" s="12">
+        <v>75</v>
+      </c>
+      <c r="E221" s="1">
+        <v>2</v>
+      </c>
+      <c r="F221" s="9">
+        <v>1</v>
+      </c>
+      <c r="G221" s="9">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A222" s="9">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3">
+        <v>16</v>
+      </c>
+      <c r="C222" s="12">
+        <v>45</v>
+      </c>
+      <c r="D222" s="12">
+        <v>80</v>
+      </c>
+      <c r="E222" s="1">
+        <v>2</v>
+      </c>
+      <c r="F222" s="9">
+        <v>1</v>
+      </c>
+      <c r="G222" s="9">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A223" s="9">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3">
+        <v>17</v>
+      </c>
+      <c r="C223" s="12">
+        <v>55</v>
+      </c>
+      <c r="D223" s="12">
+        <v>80</v>
+      </c>
+      <c r="E223" s="1">
+        <v>2</v>
+      </c>
+      <c r="F223" s="9">
+        <v>1</v>
+      </c>
+      <c r="G223" s="9">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A224" s="9">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3">
+        <v>18</v>
+      </c>
+      <c r="C224" s="12">
+        <v>80</v>
+      </c>
+      <c r="D224" s="12">
+        <v>20</v>
+      </c>
+      <c r="E224" s="1">
+        <v>2</v>
+      </c>
+      <c r="F224" s="9">
+        <v>1</v>
+      </c>
+      <c r="G224" s="9">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A225" s="9">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3">
+        <v>19</v>
+      </c>
+      <c r="C225" s="12">
+        <v>30</v>
+      </c>
+      <c r="D225" s="12">
+        <v>25</v>
+      </c>
+      <c r="E225" s="1">
+        <v>2</v>
+      </c>
+      <c r="F225" s="9">
+        <v>1</v>
+      </c>
+      <c r="G225" s="9">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A226" s="9">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3">
+        <v>20</v>
+      </c>
+      <c r="C226" s="12">
+        <v>80</v>
+      </c>
+      <c r="D226" s="12">
+        <v>20</v>
+      </c>
+      <c r="E226" s="1">
+        <v>2</v>
+      </c>
+      <c r="F226" s="9">
+        <v>1</v>
+      </c>
+      <c r="G226" s="9">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A227" s="9">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3">
+        <v>21</v>
+      </c>
+      <c r="C227" s="12">
+        <v>60</v>
+      </c>
+      <c r="D227" s="12">
+        <v>30</v>
+      </c>
+      <c r="E227" s="1">
+        <v>2</v>
+      </c>
+      <c r="F227" s="9">
+        <v>1</v>
+      </c>
+      <c r="G227" s="9">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A228" s="9">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3">
+        <v>22</v>
+      </c>
+      <c r="C228" s="12">
+        <v>20</v>
+      </c>
+      <c r="D228" s="12">
+        <v>30</v>
+      </c>
+      <c r="E228" s="1">
+        <v>2</v>
+      </c>
+      <c r="F228" s="9">
+        <v>1</v>
+      </c>
+      <c r="G228" s="9">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A229" s="9">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3">
+        <v>23</v>
+      </c>
+      <c r="C229" s="12">
+        <v>80</v>
+      </c>
+      <c r="D229" s="12">
+        <v>20</v>
+      </c>
+      <c r="E229" s="1">
+        <v>2</v>
+      </c>
+      <c r="F229" s="9">
+        <v>1</v>
+      </c>
+      <c r="G229" s="9">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A230" s="9">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3">
+        <v>24</v>
+      </c>
+      <c r="C230" s="12">
+        <v>80</v>
+      </c>
+      <c r="D230" s="12">
+        <v>20</v>
+      </c>
+      <c r="E230" s="1">
+        <v>2</v>
+      </c>
+      <c r="F230" s="9">
+        <v>1</v>
+      </c>
+      <c r="G230" s="9">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A231" s="9">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3">
+        <v>25</v>
+      </c>
+      <c r="C231" s="12">
+        <v>70</v>
+      </c>
+      <c r="D231" s="12">
+        <v>10</v>
+      </c>
+      <c r="E231" s="1">
+        <v>2</v>
+      </c>
+      <c r="F231" s="9">
+        <v>1</v>
+      </c>
+      <c r="G231" s="9">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A232" s="9">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3">
+        <v>26</v>
+      </c>
+      <c r="C232" s="12">
+        <v>55</v>
+      </c>
+      <c r="D232" s="12">
+        <v>90</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2</v>
+      </c>
+      <c r="F232" s="9">
+        <v>1</v>
+      </c>
+      <c r="G232" s="9">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A233" s="9">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3">
+        <v>27</v>
+      </c>
+      <c r="C233" s="12">
+        <v>40</v>
+      </c>
+      <c r="D233" s="12">
+        <v>80</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2</v>
+      </c>
+      <c r="F233" s="9">
+        <v>1</v>
+      </c>
+      <c r="G233" s="9">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A234" s="9">
+        <v>233</v>
+      </c>
+      <c r="B234" s="3">
+        <v>28</v>
+      </c>
+      <c r="C234" s="12">
+        <v>55</v>
+      </c>
+      <c r="D234" s="12">
+        <v>80</v>
+      </c>
+      <c r="E234" s="1">
+        <v>2</v>
+      </c>
+      <c r="F234" s="9">
+        <v>1</v>
+      </c>
+      <c r="G234" s="9">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A235" s="9">
+        <v>234</v>
+      </c>
+      <c r="B235" s="3">
+        <v>29</v>
+      </c>
+      <c r="C235" s="12">
+        <v>60</v>
+      </c>
+      <c r="D235" s="12">
+        <v>30</v>
+      </c>
+      <c r="E235" s="1">
+        <v>2</v>
+      </c>
+      <c r="F235" s="9">
+        <v>1</v>
+      </c>
+      <c r="G235" s="9">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A236" s="9">
+        <v>235</v>
+      </c>
+      <c r="B236" s="3">
+        <v>30</v>
+      </c>
+      <c r="C236" s="12">
+        <v>30</v>
+      </c>
+      <c r="D236" s="12">
+        <v>85</v>
+      </c>
+      <c r="E236" s="1">
+        <v>2</v>
+      </c>
+      <c r="F236" s="9">
+        <v>1</v>
+      </c>
+      <c r="G236" s="9">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A237" s="9">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3">
+        <v>31</v>
+      </c>
+      <c r="C237" s="12">
+        <v>40</v>
+      </c>
+      <c r="D237" s="12">
+        <v>75</v>
+      </c>
+      <c r="E237" s="1">
+        <v>2</v>
+      </c>
+      <c r="F237" s="9">
+        <v>1</v>
+      </c>
+      <c r="G237" s="9">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A238" s="9">
+        <v>237</v>
+      </c>
+      <c r="B238" s="3">
+        <v>32</v>
+      </c>
+      <c r="C238" s="12">
+        <v>90</v>
+      </c>
+      <c r="D238" s="12">
+        <v>80</v>
+      </c>
+      <c r="E238" s="1">
+        <v>2</v>
+      </c>
+      <c r="F238" s="9">
+        <v>1</v>
+      </c>
+      <c r="G238" s="9">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A239" s="9">
+        <v>238</v>
+      </c>
+      <c r="B239" s="3">
+        <v>33</v>
+      </c>
+      <c r="C239" s="12">
+        <v>20</v>
+      </c>
+      <c r="D239" s="12">
+        <v>30</v>
+      </c>
+      <c r="E239" s="1">
+        <v>2</v>
+      </c>
+      <c r="F239" s="9">
+        <v>1</v>
+      </c>
+      <c r="G239" s="9">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A240" s="9">
+        <v>239</v>
+      </c>
+      <c r="B240" s="3">
+        <v>34</v>
+      </c>
+      <c r="C240" s="12">
+        <v>30</v>
+      </c>
+      <c r="D240" s="12">
+        <v>80</v>
+      </c>
+      <c r="E240" s="1">
+        <v>2</v>
+      </c>
+      <c r="F240" s="9">
+        <v>1</v>
+      </c>
+      <c r="G240" s="9">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A241" s="9">
+        <v>240</v>
+      </c>
+      <c r="B241" s="3">
+        <v>35</v>
+      </c>
+      <c r="C241" s="12">
+        <v>40</v>
+      </c>
+      <c r="D241" s="12">
+        <v>95</v>
+      </c>
+      <c r="E241" s="1">
+        <v>2</v>
+      </c>
+      <c r="F241" s="9">
+        <v>1</v>
+      </c>
+      <c r="G241" s="9">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A242" s="9">
+        <v>241</v>
+      </c>
+      <c r="B242" s="3">
+        <v>36</v>
+      </c>
+      <c r="C242" s="12">
+        <v>50</v>
+      </c>
+      <c r="D242" s="12">
+        <v>95</v>
+      </c>
+      <c r="E242" s="1">
+        <v>2</v>
+      </c>
+      <c r="F242" s="9">
+        <v>1</v>
+      </c>
+      <c r="G242" s="9">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A243" s="9">
+        <v>242</v>
+      </c>
+      <c r="B243" s="3">
+        <v>37</v>
+      </c>
+      <c r="C243" s="12">
+        <v>90</v>
+      </c>
+      <c r="D243" s="12">
+        <v>80</v>
+      </c>
+      <c r="E243" s="1">
+        <v>2</v>
+      </c>
+      <c r="F243" s="9">
+        <v>1</v>
+      </c>
+      <c r="G243" s="9">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A244" s="9">
+        <v>243</v>
+      </c>
+      <c r="B244" s="3">
+        <v>38</v>
+      </c>
+      <c r="C244" s="12">
+        <v>80</v>
+      </c>
+      <c r="D244" s="12">
+        <v>20</v>
+      </c>
+      <c r="E244" s="1">
+        <v>2</v>
+      </c>
+      <c r="F244" s="9">
+        <v>1</v>
+      </c>
+      <c r="G244" s="9">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A245" s="9">
+        <v>244</v>
+      </c>
+      <c r="B245" s="3">
+        <v>39</v>
+      </c>
+      <c r="C245" s="12">
+        <v>60</v>
+      </c>
+      <c r="D245" s="12">
+        <v>80</v>
+      </c>
+      <c r="E245" s="1">
+        <v>2</v>
+      </c>
+      <c r="F245" s="9">
+        <v>1</v>
+      </c>
+      <c r="G245" s="9">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A246" s="9">
+        <v>245</v>
+      </c>
+      <c r="B246" s="3">
+        <v>40</v>
+      </c>
+      <c r="C246" s="12">
+        <v>80</v>
+      </c>
+      <c r="D246" s="12">
+        <v>70</v>
+      </c>
+      <c r="E246" s="1">
+        <v>2</v>
+      </c>
+      <c r="F246" s="9">
+        <v>1</v>
+      </c>
+      <c r="G246" s="9">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A247" s="9">
+        <v>246</v>
+      </c>
+      <c r="B247" s="3">
+        <v>41</v>
+      </c>
+      <c r="C247" s="12">
+        <v>90</v>
+      </c>
+      <c r="D247" s="12">
+        <v>90</v>
+      </c>
+      <c r="E247" s="1">
+        <v>2</v>
+      </c>
+      <c r="F247" s="9">
+        <v>1</v>
+      </c>
+      <c r="G247" s="9">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="249" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="250" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="251" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="252" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="253" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="254" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="255" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="256" spans="1:8" ht="12.75" customHeight="1"/>
     <row r="257" ht="12.75" customHeight="1"/>
     <row r="258" ht="12.75" customHeight="1"/>
     <row r="259" ht="12.75" customHeight="1"/>
@@ -19342,8 +23691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEC1AC8-2093-4D23-9D9C-37D51A2AA2D4}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19392,7 +23741,7 @@
         <v>221</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15">
@@ -19434,35 +23783,35 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>234</v>
+      <c r="B3" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="G3" s="18">
         <v>8</v>
       </c>
       <c r="H3" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15">
@@ -19470,19 +23819,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G4" s="18">
         <v>6</v>
@@ -19491,13 +23840,13 @@
         <v>8</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15">
@@ -19542,35 +23891,35 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>234</v>
+      <c r="B6" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="G6" s="18">
         <v>8</v>
       </c>
       <c r="H6" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -19581,19 +23930,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G7" s="18">
         <v>6</v>
@@ -19602,13 +23951,13 @@
         <v>8</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -19656,35 +24005,35 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>234</v>
+      <c r="B9" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="G9" s="18">
         <v>8</v>
       </c>
       <c r="H9" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -19695,19 +24044,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G10" s="18">
         <v>6</v>
@@ -19716,13 +24065,13 @@
         <v>8</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -19737,7 +24086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
+++ b/backend/bin/Debug/net8.0/Initializers/DigitalWars_InicjalizacjaBazyDanych.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repozytoria\Projekt Zespołowy\ITM_ProjektZespo-owy\backend\Initializers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F73BB9-D68C-4678-AD7B-B7C0682EE7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDBC5C9-1B6A-4A25-8DAA-1BB2ECDA2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="21" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="197">
   <si>
     <t>Stworzenie profilu organizacji</t>
   </si>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>#404040</t>
+  </si>
+  <si>
+    <t>ProcessWeight</t>
   </si>
 </sst>
 </file>
@@ -3023,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203EA4C9-990F-4F3C-8834-562941A4A0C3}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3034,9 +3037,10 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>174</v>
       </c>
@@ -3050,10 +3054,13 @@
         <v>189</v>
       </c>
       <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3067,10 +3074,13 @@
         <v>190</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.17</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3084,10 +3094,13 @@
         <v>191</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.13</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3101,10 +3114,13 @@
         <v>193</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3118,10 +3134,13 @@
         <v>194</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3135,10 +3154,13 @@
         <v>195</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.18</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3152,10 +3174,13 @@
         <v>192</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3169,10 +3194,13 @@
         <v>190</v>
       </c>
       <c r="E8">
+        <v>0.17</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3186,10 +3214,13 @@
         <v>191</v>
       </c>
       <c r="E9">
+        <v>0.13</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3203,10 +3234,13 @@
         <v>193</v>
       </c>
       <c r="E10">
+        <v>0.16</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3220,10 +3254,13 @@
         <v>194</v>
       </c>
       <c r="E11">
+        <v>0.22</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3237,10 +3274,13 @@
         <v>195</v>
       </c>
       <c r="E12">
+        <v>0.18</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3254,10 +3294,13 @@
         <v>192</v>
       </c>
       <c r="E13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3271,10 +3314,13 @@
         <v>190</v>
       </c>
       <c r="E14">
+        <v>0.17</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3288,10 +3334,13 @@
         <v>191</v>
       </c>
       <c r="E15">
+        <v>0.13</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3305,10 +3354,13 @@
         <v>193</v>
       </c>
       <c r="E16">
+        <v>0.16</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3322,10 +3374,13 @@
         <v>194</v>
       </c>
       <c r="E17">
+        <v>0.22</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3339,10 +3394,13 @@
         <v>195</v>
       </c>
       <c r="E18">
+        <v>0.18</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3356,6 +3414,9 @@
         <v>192</v>
       </c>
       <c r="E19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
@@ -14616,8 +14677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="R172" sqref="R172"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
